--- a/vgp_database/Absaroka_volcanics.xlsx
+++ b/vgp_database/Absaroka_volcanics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="185">
   <si>
     <t>Name:</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>2; 3</t>
+  </si>
+  <si>
+    <t>VGP appears slightly anomalous relative to dec/inc and sampling area (discarded).</t>
   </si>
   <si>
     <t>4b</t>
@@ -632,7 +635,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,12 +668,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -692,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -779,14 +776,17 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -833,7 +833,7 @@
     <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4258,11 +4258,11 @@
       <c r="B35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="30">
-        <v>47.24</v>
-      </c>
-      <c r="D35" s="30">
-        <v>-113.5</v>
+      <c r="C35" s="22">
+        <v>44.5</v>
+      </c>
+      <c r="D35" s="22">
+        <v>-109.5</v>
       </c>
       <c r="E35" s="10">
         <v>5.0</v>
@@ -4280,12 +4280,8 @@
         <v>6.0</v>
       </c>
       <c r="J35" s="9"/>
-      <c r="K35" s="10">
-        <v>65.1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>-100.2</v>
-      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -4342,7 +4338,9 @@
       <c r="AJ35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AK35" s="13"/>
+      <c r="AK35" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="AL35" s="15" t="s">
         <v>53</v>
       </c>
@@ -4453,10 +4451,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="22">
         <v>44.6287</v>
@@ -4536,7 +4534,7 @@
         <v>0.0</v>
       </c>
       <c r="AH37" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI37" s="13" t="s">
         <v>46</v>
@@ -4555,10 +4553,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="22">
         <v>44.62</v>
@@ -4638,7 +4636,7 @@
         <v>0.0</v>
       </c>
       <c r="AH38" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>46</v>
@@ -4660,7 +4658,7 @@
         <v>4.0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="22">
         <v>44.4587</v>
@@ -4734,7 +4732,7 @@
         <v>1.0</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG39" s="11">
         <v>1.0</v>
@@ -4757,10 +4755,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="22">
         <v>44.5082</v>
@@ -4840,7 +4838,7 @@
         <v>0.0</v>
       </c>
       <c r="AH40" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI40" s="13" t="s">
         <v>46</v>
@@ -4859,10 +4857,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="22">
         <v>44.5082</v>
@@ -4942,7 +4940,7 @@
         <v>0.0</v>
       </c>
       <c r="AH41" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI41" s="13" t="s">
         <v>46</v>
@@ -4964,7 +4962,7 @@
         <v>5.0</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="22">
         <v>44.4174</v>
@@ -5038,7 +5036,7 @@
         <v>2.0</v>
       </c>
       <c r="AF42" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG42" s="11">
         <v>1.0</v>
@@ -5064,7 +5062,7 @@
         <v>44.0</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="22">
         <v>44.6036</v>
@@ -5161,10 +5159,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="22">
         <v>44.6</v>
@@ -5263,10 +5261,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="22">
         <v>44.1647</v>
@@ -5346,7 +5344,7 @@
         <v>0.0</v>
       </c>
       <c r="AH45" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI45" s="13" t="s">
         <v>46</v>
@@ -5365,10 +5363,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="22">
         <v>44.5292</v>
@@ -5448,7 +5446,7 @@
         <v>0.0</v>
       </c>
       <c r="AH46" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI46" s="13" t="s">
         <v>46</v>
@@ -5470,7 +5468,7 @@
         <v>3.0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="22">
         <v>44.4491</v>
@@ -5544,7 +5542,7 @@
         <v>5.0</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG47" s="11">
         <v>1.0</v>
@@ -5567,10 +5565,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="22">
         <v>44.6156</v>
@@ -5646,7 +5644,7 @@
         <v>0.0</v>
       </c>
       <c r="AH48" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI48" s="13" t="s">
         <v>46</v>
@@ -5665,10 +5663,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="22">
         <v>44.4804</v>
@@ -5748,7 +5746,7 @@
         <v>0.0</v>
       </c>
       <c r="AH49" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI49" s="13" t="s">
         <v>46</v>
@@ -5767,10 +5765,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="22">
         <v>44.4804</v>
@@ -5844,7 +5842,7 @@
         <v>6.0</v>
       </c>
       <c r="AF50" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG50" s="11">
         <v>0.0</v>
@@ -5872,7 +5870,7 @@
         <v>1.0</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="22">
         <v>44.4812</v>
@@ -5967,10 +5965,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="22">
         <v>44.1664</v>
@@ -6050,7 +6048,7 @@
         <v>0.0</v>
       </c>
       <c r="AH52" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI52" s="13" t="s">
         <v>46</v>
@@ -6069,10 +6067,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C53" s="22">
         <v>44.4824</v>
@@ -6152,7 +6150,7 @@
         <v>0.0</v>
       </c>
       <c r="AH53" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI53" s="13" t="s">
         <v>46</v>
@@ -6174,7 +6172,7 @@
         <v>16.0</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="22">
         <v>44.5707</v>
@@ -6248,7 +6246,7 @@
         <v>1.0</v>
       </c>
       <c r="AF54" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG54" s="11">
         <v>1.0</v>
@@ -6271,15 +6269,15 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="22">
+        <v>117</v>
+      </c>
+      <c r="C55" s="33">
         <v>44.3</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="33">
         <v>-109.2</v>
       </c>
       <c r="E55" s="10">
@@ -6320,25 +6318,25 @@
       <c r="V55" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="W55" s="33" t="s">
+      <c r="W55" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="X55" s="33" t="s">
+      <c r="X55" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Y55" s="33" t="s">
+      <c r="Y55" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Z55" s="34" t="s">
+      <c r="Z55" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AA55" s="33">
+      <c r="AA55" s="34">
         <v>1.0</v>
       </c>
-      <c r="AB55" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="AC55" s="33" t="s">
+      <c r="AB55" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" s="34" t="s">
         <v>7</v>
       </c>
       <c r="AD55" s="11">
@@ -6347,13 +6345,13 @@
       <c r="AE55" s="11">
         <v>2.0</v>
       </c>
-      <c r="AF55" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="AG55" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="AH55" s="35" t="s">
+      <c r="AF55" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="AG55" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="AH55" s="36" t="s">
         <v>81</v>
       </c>
       <c r="AI55" s="13" t="s">
@@ -6372,11 +6370,11 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="36">
+      <c r="A56" s="37">
         <v>1.0</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="22">
         <v>44.0905</v>
@@ -6384,42 +6382,42 @@
       <c r="D56" s="22">
         <v>-109.4657</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="37">
         <v>3.0</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="37">
         <v>174.2</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="37">
         <v>-55.6</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="37">
         <v>559.0</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="37">
         <v>3.8</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="36">
+      <c r="J56" s="38"/>
+      <c r="K56" s="37">
         <v>80.9</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="37">
         <v>101.6</v>
       </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
       <c r="R56" s="8">
         <v>48.0</v>
       </c>
-      <c r="S56" s="38"/>
+      <c r="S56" s="39"/>
       <c r="T56" s="8">
         <v>49.0</v>
       </c>
-      <c r="U56" s="37"/>
-      <c r="V56" s="36" t="s">
+      <c r="U56" s="38"/>
+      <c r="V56" s="37" t="s">
         <v>42</v>
       </c>
       <c r="W56" s="11" t="s">
@@ -6432,7 +6430,7 @@
         <v>45</v>
       </c>
       <c r="Z56" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA56" s="11">
         <v>1.0</v>
@@ -6443,10 +6441,10 @@
       <c r="AC56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AD56" s="36">
+      <c r="AD56" s="37">
         <v>6.0</v>
       </c>
-      <c r="AE56" s="36">
+      <c r="AE56" s="37">
         <v>53.0</v>
       </c>
       <c r="AF56" s="8">
@@ -6456,29 +6454,29 @@
         <v>0.0</v>
       </c>
       <c r="AH56" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI56" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ56" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI56" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ56" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="40" t="s">
+      <c r="AK56" s="40"/>
+      <c r="AL56" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AM56" s="41"/>
-      <c r="AN56" s="41"/>
-      <c r="AO56" s="42"/>
-      <c r="AP56" s="42"/>
+      <c r="AM56" s="42"/>
+      <c r="AN56" s="42"/>
+      <c r="AO56" s="43"/>
+      <c r="AP56" s="43"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8">
         <v>2.0</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="22">
         <v>44.1131</v>
@@ -6501,26 +6499,26 @@
       <c r="I57" s="8">
         <v>2.8</v>
       </c>
-      <c r="J57" s="43"/>
+      <c r="J57" s="44"/>
       <c r="K57" s="8">
         <v>88.4</v>
       </c>
       <c r="L57" s="8">
         <v>253.1</v>
       </c>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
       <c r="R57" s="8">
         <v>48.0</v>
       </c>
-      <c r="S57" s="44"/>
+      <c r="S57" s="45"/>
       <c r="T57" s="8">
         <v>49.0</v>
       </c>
-      <c r="U57" s="43"/>
+      <c r="U57" s="44"/>
       <c r="V57" s="8" t="s">
         <v>42</v>
       </c>
@@ -6534,7 +6532,7 @@
         <v>45</v>
       </c>
       <c r="Z57" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA57" s="11">
         <v>1.0</v>
@@ -6558,10 +6556,10 @@
         <v>0.0</v>
       </c>
       <c r="AH57" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI57" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ57" s="3" t="s">
         <v>51</v>
@@ -6570,17 +6568,17 @@
       <c r="AL57" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM57" s="42"/>
-      <c r="AN57" s="42"/>
-      <c r="AO57" s="42"/>
-      <c r="AP57" s="42"/>
+      <c r="AM57" s="43"/>
+      <c r="AN57" s="43"/>
+      <c r="AO57" s="43"/>
+      <c r="AP57" s="43"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8">
         <v>3.0</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="22">
         <v>44.1817</v>
@@ -6603,26 +6601,26 @@
       <c r="I58" s="8">
         <v>3.8</v>
       </c>
-      <c r="J58" s="43"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="8">
         <v>85.4</v>
       </c>
       <c r="L58" s="8">
         <v>114.9</v>
       </c>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
       <c r="R58" s="8">
         <v>48.0</v>
       </c>
-      <c r="S58" s="44"/>
+      <c r="S58" s="45"/>
       <c r="T58" s="8">
         <v>49.0</v>
       </c>
-      <c r="U58" s="43"/>
+      <c r="U58" s="44"/>
       <c r="V58" s="8" t="s">
         <v>42</v>
       </c>
@@ -6636,7 +6634,7 @@
         <v>45</v>
       </c>
       <c r="Z58" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA58" s="11">
         <v>1.0</v>
@@ -6660,10 +6658,10 @@
         <v>0.0</v>
       </c>
       <c r="AH58" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI58" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ58" s="3" t="s">
         <v>51</v>
@@ -6672,17 +6670,17 @@
       <c r="AL58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
+      <c r="AM58" s="43"/>
+      <c r="AN58" s="43"/>
+      <c r="AO58" s="43"/>
+      <c r="AP58" s="43"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8">
         <v>4.0</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="22">
         <v>44.1617</v>
@@ -6705,26 +6703,26 @@
       <c r="I59" s="8">
         <v>1.4</v>
       </c>
-      <c r="J59" s="43"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="8">
         <v>85.1</v>
       </c>
       <c r="L59" s="8">
         <v>35.0</v>
       </c>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
       <c r="R59" s="8">
         <v>48.0</v>
       </c>
-      <c r="S59" s="44"/>
+      <c r="S59" s="45"/>
       <c r="T59" s="8">
         <v>49.0</v>
       </c>
-      <c r="U59" s="43"/>
+      <c r="U59" s="44"/>
       <c r="V59" s="8" t="s">
         <v>42</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>45</v>
       </c>
       <c r="Z59" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA59" s="11">
         <v>1.0</v>
@@ -6762,10 +6760,10 @@
         <v>0.0</v>
       </c>
       <c r="AH59" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI59" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ59" s="3" t="s">
         <v>51</v>
@@ -6774,17 +6772,17 @@
       <c r="AL59" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
+      <c r="AM59" s="43"/>
+      <c r="AN59" s="43"/>
+      <c r="AO59" s="43"/>
+      <c r="AP59" s="43"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8">
         <v>5.0</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="22">
         <v>44.1062</v>
@@ -6807,26 +6805,26 @@
       <c r="I60" s="8">
         <v>1.6</v>
       </c>
-      <c r="J60" s="43"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="8">
         <v>85.2</v>
       </c>
       <c r="L60" s="8">
         <v>51.9</v>
       </c>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
       <c r="R60" s="8">
         <v>48.0</v>
       </c>
-      <c r="S60" s="44"/>
+      <c r="S60" s="45"/>
       <c r="T60" s="8">
         <v>49.0</v>
       </c>
-      <c r="U60" s="43"/>
+      <c r="U60" s="44"/>
       <c r="V60" s="8" t="s">
         <v>42</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>45</v>
       </c>
       <c r="Z60" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA60" s="11">
         <v>1.0</v>
@@ -6864,10 +6862,10 @@
         <v>0.0</v>
       </c>
       <c r="AH60" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI60" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ60" s="3" t="s">
         <v>51</v>
@@ -6876,17 +6874,17 @@
       <c r="AL60" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
+      <c r="AM60" s="43"/>
+      <c r="AN60" s="43"/>
+      <c r="AO60" s="43"/>
+      <c r="AP60" s="43"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8">
         <v>6.0</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="22">
         <v>44.1671</v>
@@ -6909,26 +6907,26 @@
       <c r="I61" s="8">
         <v>1.0</v>
       </c>
-      <c r="J61" s="43"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="8">
         <v>83.1</v>
       </c>
       <c r="L61" s="8">
         <v>67.3</v>
       </c>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
       <c r="R61" s="8">
         <v>48.0</v>
       </c>
-      <c r="S61" s="44"/>
+      <c r="S61" s="45"/>
       <c r="T61" s="8">
         <v>49.0</v>
       </c>
-      <c r="U61" s="43"/>
+      <c r="U61" s="44"/>
       <c r="V61" s="8" t="s">
         <v>42</v>
       </c>
@@ -6942,7 +6940,7 @@
         <v>45</v>
       </c>
       <c r="Z61" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA61" s="11">
         <v>1.0</v>
@@ -6966,10 +6964,10 @@
         <v>0.0</v>
       </c>
       <c r="AH61" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI61" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ61" s="3" t="s">
         <v>51</v>
@@ -6978,17 +6976,17 @@
       <c r="AL61" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
+      <c r="AM61" s="43"/>
+      <c r="AN61" s="43"/>
+      <c r="AO61" s="43"/>
+      <c r="AP61" s="43"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8">
         <v>7.0</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="22">
         <v>44.1088</v>
@@ -7011,26 +7009,26 @@
       <c r="I62" s="8">
         <v>2.1</v>
       </c>
-      <c r="J62" s="43"/>
+      <c r="J62" s="44"/>
       <c r="K62" s="8">
         <v>85.7</v>
       </c>
       <c r="L62" s="8">
         <v>92.5</v>
       </c>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
       <c r="R62" s="8">
         <v>48.0</v>
       </c>
-      <c r="S62" s="44"/>
+      <c r="S62" s="45"/>
       <c r="T62" s="8">
         <v>49.0</v>
       </c>
-      <c r="U62" s="43"/>
+      <c r="U62" s="44"/>
       <c r="V62" s="8" t="s">
         <v>42</v>
       </c>
@@ -7044,7 +7042,7 @@
         <v>45</v>
       </c>
       <c r="Z62" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA62" s="11">
         <v>1.0</v>
@@ -7068,10 +7066,10 @@
         <v>0.0</v>
       </c>
       <c r="AH62" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI62" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ62" s="3" t="s">
         <v>51</v>
@@ -7080,17 +7078,17 @@
       <c r="AL62" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
+      <c r="AM62" s="43"/>
+      <c r="AN62" s="43"/>
+      <c r="AO62" s="43"/>
+      <c r="AP62" s="43"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8">
         <v>8.0</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="22">
         <v>44.1424</v>
@@ -7113,26 +7111,26 @@
       <c r="I63" s="8">
         <v>2.9</v>
       </c>
-      <c r="J63" s="43"/>
+      <c r="J63" s="44"/>
       <c r="K63" s="8">
         <v>85.0</v>
       </c>
       <c r="L63" s="8">
         <v>1.5</v>
       </c>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
       <c r="R63" s="8">
         <v>48.0</v>
       </c>
-      <c r="S63" s="44"/>
+      <c r="S63" s="45"/>
       <c r="T63" s="8">
         <v>49.0</v>
       </c>
-      <c r="U63" s="43"/>
+      <c r="U63" s="44"/>
       <c r="V63" s="8" t="s">
         <v>42</v>
       </c>
@@ -7146,7 +7144,7 @@
         <v>45</v>
       </c>
       <c r="Z63" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA63" s="11">
         <v>1.0</v>
@@ -7170,10 +7168,10 @@
         <v>0.0</v>
       </c>
       <c r="AH63" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI63" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ63" s="3" t="s">
         <v>51</v>
@@ -7182,17 +7180,17 @@
       <c r="AL63" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM63" s="42"/>
-      <c r="AN63" s="42"/>
-      <c r="AO63" s="42"/>
-      <c r="AP63" s="42"/>
+      <c r="AM63" s="43"/>
+      <c r="AN63" s="43"/>
+      <c r="AO63" s="43"/>
+      <c r="AP63" s="43"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8">
         <v>9.0</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" s="22">
         <v>44.0857</v>
@@ -7215,26 +7213,26 @@
       <c r="I64" s="8">
         <v>4.7</v>
       </c>
-      <c r="J64" s="43"/>
+      <c r="J64" s="44"/>
       <c r="K64" s="8">
         <v>86.8</v>
       </c>
       <c r="L64" s="8">
         <v>66.6</v>
       </c>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
       <c r="R64" s="8">
         <v>48.0</v>
       </c>
-      <c r="S64" s="44"/>
+      <c r="S64" s="45"/>
       <c r="T64" s="8">
         <v>49.0</v>
       </c>
-      <c r="U64" s="43"/>
+      <c r="U64" s="44"/>
       <c r="V64" s="8" t="s">
         <v>42</v>
       </c>
@@ -7248,7 +7246,7 @@
         <v>45</v>
       </c>
       <c r="Z64" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA64" s="11">
         <v>1.0</v>
@@ -7272,10 +7270,10 @@
         <v>0.0</v>
       </c>
       <c r="AH64" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI64" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ64" s="3" t="s">
         <v>51</v>
@@ -7284,17 +7282,17 @@
       <c r="AL64" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="42"/>
-      <c r="AP64" s="42"/>
+      <c r="AM64" s="43"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="43"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8">
         <v>10.0</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="22">
         <v>44.1313</v>
@@ -7317,26 +7315,26 @@
       <c r="I65" s="8">
         <v>3.5</v>
       </c>
-      <c r="J65" s="43"/>
+      <c r="J65" s="44"/>
       <c r="K65" s="8">
         <v>82.0</v>
       </c>
       <c r="L65" s="8">
         <v>84.7</v>
       </c>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
       <c r="R65" s="8">
         <v>48.0</v>
       </c>
-      <c r="S65" s="44"/>
+      <c r="S65" s="45"/>
       <c r="T65" s="8">
         <v>49.0</v>
       </c>
-      <c r="U65" s="43"/>
+      <c r="U65" s="44"/>
       <c r="V65" s="8" t="s">
         <v>42</v>
       </c>
@@ -7350,7 +7348,7 @@
         <v>45</v>
       </c>
       <c r="Z65" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA65" s="11">
         <v>1.0</v>
@@ -7374,10 +7372,10 @@
         <v>0.0</v>
       </c>
       <c r="AH65" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI65" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ65" s="3" t="s">
         <v>51</v>
@@ -7386,17 +7384,17 @@
       <c r="AL65" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM65" s="42"/>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="42"/>
-      <c r="AP65" s="42"/>
+      <c r="AM65" s="43"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="43"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8">
         <v>11.0</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="22">
         <v>44.1367</v>
@@ -7419,26 +7417,26 @@
       <c r="I66" s="8">
         <v>2.2</v>
       </c>
-      <c r="J66" s="43"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="8">
         <v>79.4</v>
       </c>
       <c r="L66" s="8">
         <v>75.2</v>
       </c>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
       <c r="R66" s="8">
         <v>48.0</v>
       </c>
-      <c r="S66" s="44"/>
+      <c r="S66" s="45"/>
       <c r="T66" s="8">
         <v>49.0</v>
       </c>
-      <c r="U66" s="43"/>
+      <c r="U66" s="44"/>
       <c r="V66" s="8" t="s">
         <v>42</v>
       </c>
@@ -7452,7 +7450,7 @@
         <v>45</v>
       </c>
       <c r="Z66" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA66" s="11">
         <v>1.0</v>
@@ -7476,10 +7474,10 @@
         <v>0.0</v>
       </c>
       <c r="AH66" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI66" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ66" s="3" t="s">
         <v>51</v>
@@ -7488,17 +7486,17 @@
       <c r="AL66" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
-      <c r="AO66" s="42"/>
-      <c r="AP66" s="42"/>
+      <c r="AM66" s="43"/>
+      <c r="AN66" s="43"/>
+      <c r="AO66" s="43"/>
+      <c r="AP66" s="43"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8">
         <v>12.0</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C67" s="22">
         <v>44.1184</v>
@@ -7521,26 +7519,26 @@
       <c r="I67" s="8">
         <v>1.9</v>
       </c>
-      <c r="J67" s="43"/>
+      <c r="J67" s="44"/>
       <c r="K67" s="8">
         <v>81.9</v>
       </c>
       <c r="L67" s="8">
         <v>74.6</v>
       </c>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
       <c r="R67" s="8">
         <v>48.0</v>
       </c>
-      <c r="S67" s="44"/>
+      <c r="S67" s="45"/>
       <c r="T67" s="8">
         <v>49.0</v>
       </c>
-      <c r="U67" s="43"/>
+      <c r="U67" s="44"/>
       <c r="V67" s="8" t="s">
         <v>42</v>
       </c>
@@ -7554,7 +7552,7 @@
         <v>45</v>
       </c>
       <c r="Z67" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA67" s="11">
         <v>1.0</v>
@@ -7578,10 +7576,10 @@
         <v>0.0</v>
       </c>
       <c r="AH67" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI67" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ67" s="3" t="s">
         <v>51</v>
@@ -7590,17 +7588,17 @@
       <c r="AL67" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42"/>
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8">
         <v>13.0</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="22">
         <v>44.1387</v>
@@ -7623,26 +7621,26 @@
       <c r="I68" s="8">
         <v>0.5</v>
       </c>
-      <c r="J68" s="43"/>
+      <c r="J68" s="44"/>
       <c r="K68" s="8">
         <v>81.0</v>
       </c>
       <c r="L68" s="8">
         <v>58.0</v>
       </c>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
       <c r="R68" s="8">
         <v>48.0</v>
       </c>
-      <c r="S68" s="44"/>
+      <c r="S68" s="45"/>
       <c r="T68" s="8">
         <v>49.0</v>
       </c>
-      <c r="U68" s="43"/>
+      <c r="U68" s="44"/>
       <c r="V68" s="8" t="s">
         <v>42</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>45</v>
       </c>
       <c r="Z68" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA68" s="11">
         <v>1.0</v>
@@ -7680,10 +7678,10 @@
         <v>0.0</v>
       </c>
       <c r="AH68" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI68" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ68" s="3" t="s">
         <v>51</v>
@@ -7692,17 +7690,17 @@
       <c r="AL68" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
-      <c r="AO68" s="42"/>
-      <c r="AP68" s="42"/>
+      <c r="AM68" s="43"/>
+      <c r="AN68" s="43"/>
+      <c r="AO68" s="43"/>
+      <c r="AP68" s="43"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8">
         <v>14.0</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" s="22">
         <v>44.212</v>
@@ -7725,26 +7723,26 @@
       <c r="I69" s="8">
         <v>3.8</v>
       </c>
-      <c r="J69" s="43"/>
+      <c r="J69" s="44"/>
       <c r="K69" s="8">
         <v>78.3</v>
       </c>
       <c r="L69" s="8">
         <v>131.0</v>
       </c>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
       <c r="R69" s="8">
         <v>48.0</v>
       </c>
-      <c r="S69" s="44"/>
+      <c r="S69" s="45"/>
       <c r="T69" s="8">
         <v>49.0</v>
       </c>
-      <c r="U69" s="43"/>
+      <c r="U69" s="44"/>
       <c r="V69" s="8" t="s">
         <v>42</v>
       </c>
@@ -7758,7 +7756,7 @@
         <v>45</v>
       </c>
       <c r="Z69" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA69" s="11">
         <v>1.0</v>
@@ -7782,10 +7780,10 @@
         <v>0.0</v>
       </c>
       <c r="AH69" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI69" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ69" s="3" t="s">
         <v>51</v>
@@ -7794,17 +7792,17 @@
       <c r="AL69" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="43"/>
+      <c r="AP69" s="43"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8">
         <v>15.0</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="22">
         <v>44.0974</v>
@@ -7827,26 +7825,26 @@
       <c r="I70" s="8">
         <v>6.7</v>
       </c>
-      <c r="J70" s="43"/>
+      <c r="J70" s="44"/>
       <c r="K70" s="8">
         <v>81.8</v>
       </c>
       <c r="L70" s="8">
         <v>90.7</v>
       </c>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
       <c r="R70" s="8">
         <v>48.0</v>
       </c>
-      <c r="S70" s="44"/>
+      <c r="S70" s="45"/>
       <c r="T70" s="8">
         <v>49.0</v>
       </c>
-      <c r="U70" s="43"/>
+      <c r="U70" s="44"/>
       <c r="V70" s="8" t="s">
         <v>42</v>
       </c>
@@ -7860,7 +7858,7 @@
         <v>45</v>
       </c>
       <c r="Z70" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA70" s="11">
         <v>1.0</v>
@@ -7884,10 +7882,10 @@
         <v>0.0</v>
       </c>
       <c r="AH70" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI70" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ70" s="3" t="s">
         <v>51</v>
@@ -7896,17 +7894,17 @@
       <c r="AL70" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
+      <c r="AM70" s="43"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="43"/>
+      <c r="AP70" s="43"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8">
         <v>16.0</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="22">
         <v>44.0777</v>
@@ -7929,26 +7927,26 @@
       <c r="I71" s="8">
         <v>3.6</v>
       </c>
-      <c r="J71" s="43"/>
+      <c r="J71" s="44"/>
       <c r="K71" s="8">
         <v>80.4</v>
       </c>
       <c r="L71" s="8">
         <v>119.3</v>
       </c>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
       <c r="R71" s="8">
         <v>48.0</v>
       </c>
-      <c r="S71" s="44"/>
+      <c r="S71" s="45"/>
       <c r="T71" s="8">
         <v>49.0</v>
       </c>
-      <c r="U71" s="43"/>
+      <c r="U71" s="44"/>
       <c r="V71" s="8" t="s">
         <v>42</v>
       </c>
@@ -7962,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="Z71" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA71" s="11">
         <v>1.0</v>
@@ -7986,10 +7984,10 @@
         <v>0.0</v>
       </c>
       <c r="AH71" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI71" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ71" s="3" t="s">
         <v>51</v>
@@ -7998,17 +7996,17 @@
       <c r="AL71" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM71" s="42"/>
-      <c r="AN71" s="42"/>
-      <c r="AO71" s="42"/>
-      <c r="AP71" s="42"/>
+      <c r="AM71" s="43"/>
+      <c r="AN71" s="43"/>
+      <c r="AO71" s="43"/>
+      <c r="AP71" s="43"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8">
         <v>17.0</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72" s="22">
         <v>44.2029</v>
@@ -8031,26 +8029,26 @@
       <c r="I72" s="8">
         <v>2.9</v>
       </c>
-      <c r="J72" s="43"/>
+      <c r="J72" s="44"/>
       <c r="K72" s="8">
         <v>77.9</v>
       </c>
       <c r="L72" s="8">
         <v>188.0</v>
       </c>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
       <c r="R72" s="8">
         <v>48.0</v>
       </c>
-      <c r="S72" s="44"/>
+      <c r="S72" s="45"/>
       <c r="T72" s="8">
         <v>49.0</v>
       </c>
-      <c r="U72" s="43"/>
+      <c r="U72" s="44"/>
       <c r="V72" s="8" t="s">
         <v>42</v>
       </c>
@@ -8064,7 +8062,7 @@
         <v>45</v>
       </c>
       <c r="Z72" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA72" s="11">
         <v>1.0</v>
@@ -8088,10 +8086,10 @@
         <v>0.0</v>
       </c>
       <c r="AH72" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI72" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ72" s="3" t="s">
         <v>51</v>
@@ -8100,17 +8098,17 @@
       <c r="AL72" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM72" s="42"/>
-      <c r="AN72" s="42"/>
-      <c r="AO72" s="42"/>
-      <c r="AP72" s="42"/>
+      <c r="AM72" s="43"/>
+      <c r="AN72" s="43"/>
+      <c r="AO72" s="43"/>
+      <c r="AP72" s="43"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8">
         <v>18.0</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C73" s="22">
         <v>43.8959</v>
@@ -8133,26 +8131,26 @@
       <c r="I73" s="8">
         <v>4.5</v>
       </c>
-      <c r="J73" s="43"/>
+      <c r="J73" s="44"/>
       <c r="K73" s="8">
         <v>79.1</v>
       </c>
       <c r="L73" s="8">
         <v>167.7</v>
       </c>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
       <c r="R73" s="8">
         <v>48.0</v>
       </c>
-      <c r="S73" s="44"/>
+      <c r="S73" s="45"/>
       <c r="T73" s="8">
         <v>49.0</v>
       </c>
-      <c r="U73" s="43"/>
+      <c r="U73" s="44"/>
       <c r="V73" s="8" t="s">
         <v>42</v>
       </c>
@@ -8166,7 +8164,7 @@
         <v>45</v>
       </c>
       <c r="Z73" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA73" s="11">
         <v>1.0</v>
@@ -8190,10 +8188,10 @@
         <v>0.0</v>
       </c>
       <c r="AH73" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI73" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ73" s="3" t="s">
         <v>51</v>
@@ -8202,17 +8200,17 @@
       <c r="AL73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="42"/>
-      <c r="AO73" s="42"/>
-      <c r="AP73" s="42"/>
+      <c r="AM73" s="43"/>
+      <c r="AN73" s="43"/>
+      <c r="AO73" s="43"/>
+      <c r="AP73" s="43"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8">
         <v>19.0</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="22">
         <v>44.1513</v>
@@ -8235,26 +8233,26 @@
       <c r="I74" s="8">
         <v>2.8</v>
       </c>
-      <c r="J74" s="43"/>
+      <c r="J74" s="44"/>
       <c r="K74" s="8">
         <v>80.3</v>
       </c>
       <c r="L74" s="8">
         <v>132.5</v>
       </c>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
       <c r="R74" s="8">
         <v>48.0</v>
       </c>
-      <c r="S74" s="44"/>
+      <c r="S74" s="45"/>
       <c r="T74" s="8">
         <v>49.0</v>
       </c>
-      <c r="U74" s="43"/>
+      <c r="U74" s="44"/>
       <c r="V74" s="8" t="s">
         <v>42</v>
       </c>
@@ -8268,7 +8266,7 @@
         <v>45</v>
       </c>
       <c r="Z74" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA74" s="11">
         <v>1.0</v>
@@ -8292,10 +8290,10 @@
         <v>0.0</v>
       </c>
       <c r="AH74" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI74" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ74" s="3" t="s">
         <v>51</v>
@@ -8304,17 +8302,17 @@
       <c r="AL74" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM74" s="42"/>
-      <c r="AN74" s="42"/>
-      <c r="AO74" s="42"/>
-      <c r="AP74" s="42"/>
+      <c r="AM74" s="43"/>
+      <c r="AN74" s="43"/>
+      <c r="AO74" s="43"/>
+      <c r="AP74" s="43"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8">
         <v>20.0</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C75" s="22">
         <v>43.5546</v>
@@ -8337,26 +8335,26 @@
       <c r="I75" s="8">
         <v>3.5</v>
       </c>
-      <c r="J75" s="43"/>
+      <c r="J75" s="44"/>
       <c r="K75" s="8">
         <v>71.2</v>
       </c>
       <c r="L75" s="8">
         <v>156.2</v>
       </c>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
       <c r="R75" s="8">
         <v>48.0</v>
       </c>
-      <c r="S75" s="44"/>
+      <c r="S75" s="45"/>
       <c r="T75" s="8">
         <v>49.0</v>
       </c>
-      <c r="U75" s="43"/>
+      <c r="U75" s="44"/>
       <c r="V75" s="8" t="s">
         <v>42</v>
       </c>
@@ -8370,7 +8368,7 @@
         <v>45</v>
       </c>
       <c r="Z75" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA75" s="11">
         <v>1.0</v>
@@ -8394,10 +8392,10 @@
         <v>0.0</v>
       </c>
       <c r="AH75" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI75" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ75" s="3" t="s">
         <v>51</v>
@@ -8406,17 +8404,17 @@
       <c r="AL75" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM75" s="42"/>
-      <c r="AN75" s="42"/>
-      <c r="AO75" s="42"/>
-      <c r="AP75" s="42"/>
+      <c r="AM75" s="43"/>
+      <c r="AN75" s="43"/>
+      <c r="AO75" s="43"/>
+      <c r="AP75" s="43"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C76" s="22">
         <v>44.093705</v>
@@ -8436,23 +8434,23 @@
       <c r="H76" s="8">
         <v>244.0</v>
       </c>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
       <c r="R76" s="8">
         <v>48.0</v>
       </c>
-      <c r="S76" s="44"/>
+      <c r="S76" s="45"/>
       <c r="T76" s="8">
         <v>49.0</v>
       </c>
-      <c r="U76" s="43"/>
+      <c r="U76" s="44"/>
       <c r="V76" s="8" t="s">
         <v>42</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>45</v>
       </c>
       <c r="Z76" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA76" s="11">
         <v>1.0</v>
@@ -8477,17 +8475,17 @@
       <c r="AC76" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="43"/>
+      <c r="AD76" s="44"/>
+      <c r="AE76" s="44"/>
       <c r="AF76" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG76" s="8">
         <v>2.0</v>
       </c>
       <c r="AH76" s="24"/>
       <c r="AI76" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ76" s="3" t="s">
         <v>51</v>
@@ -8496,17 +8494,17 @@
       <c r="AL76" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM76" s="42"/>
-      <c r="AN76" s="42"/>
-      <c r="AO76" s="42"/>
-      <c r="AP76" s="42"/>
+      <c r="AM76" s="43"/>
+      <c r="AN76" s="43"/>
+      <c r="AO76" s="43"/>
+      <c r="AP76" s="43"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8">
         <v>27.0</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" s="22">
         <v>44.1263799620061</v>
@@ -8529,26 +8527,26 @@
       <c r="I77" s="8">
         <v>1.4</v>
       </c>
-      <c r="J77" s="43"/>
+      <c r="J77" s="44"/>
       <c r="K77" s="8">
         <v>56.6</v>
       </c>
       <c r="L77" s="8">
         <v>103.4</v>
       </c>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
       <c r="R77" s="8">
         <v>48.0</v>
       </c>
-      <c r="S77" s="44"/>
+      <c r="S77" s="45"/>
       <c r="T77" s="8">
         <v>49.0</v>
       </c>
-      <c r="U77" s="43"/>
+      <c r="U77" s="44"/>
       <c r="V77" s="8" t="s">
         <v>42</v>
       </c>
@@ -8562,7 +8560,7 @@
         <v>45</v>
       </c>
       <c r="Z77" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA77" s="11">
         <v>1.0</v>
@@ -8586,10 +8584,10 @@
         <v>0.0</v>
       </c>
       <c r="AH77" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI77" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ77" s="3" t="s">
         <v>51</v>
@@ -8598,17 +8596,17 @@
       <c r="AL77" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM77" s="42"/>
-      <c r="AN77" s="42"/>
-      <c r="AO77" s="42"/>
-      <c r="AP77" s="42"/>
+      <c r="AM77" s="43"/>
+      <c r="AN77" s="43"/>
+      <c r="AO77" s="43"/>
+      <c r="AP77" s="43"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8">
         <v>28.0</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C78" s="22">
         <v>44.125494137607</v>
@@ -8631,26 +8629,26 @@
       <c r="I78" s="8">
         <v>3.6</v>
       </c>
-      <c r="J78" s="43"/>
+      <c r="J78" s="44"/>
       <c r="K78" s="8">
         <v>58.5</v>
       </c>
       <c r="L78" s="8">
         <v>102.6</v>
       </c>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
       <c r="R78" s="8">
         <v>48.0</v>
       </c>
-      <c r="S78" s="44"/>
+      <c r="S78" s="45"/>
       <c r="T78" s="8">
         <v>49.0</v>
       </c>
-      <c r="U78" s="43"/>
+      <c r="U78" s="44"/>
       <c r="V78" s="8" t="s">
         <v>42</v>
       </c>
@@ -8664,7 +8662,7 @@
         <v>45</v>
       </c>
       <c r="Z78" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA78" s="11">
         <v>1.0</v>
@@ -8688,10 +8686,10 @@
         <v>0.0</v>
       </c>
       <c r="AH78" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI78" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ78" s="3" t="s">
         <v>51</v>
@@ -8700,17 +8698,17 @@
       <c r="AL78" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM78" s="42"/>
-      <c r="AN78" s="42"/>
-      <c r="AO78" s="42"/>
-      <c r="AP78" s="42"/>
+      <c r="AM78" s="43"/>
+      <c r="AN78" s="43"/>
+      <c r="AO78" s="43"/>
+      <c r="AP78" s="43"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8">
         <v>29.0</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C79" s="22">
         <v>44.1257765080073</v>
@@ -8733,26 +8731,26 @@
       <c r="I79" s="8">
         <v>7.6</v>
       </c>
-      <c r="J79" s="43"/>
+      <c r="J79" s="44"/>
       <c r="K79" s="8">
         <v>66.8</v>
       </c>
       <c r="L79" s="8">
         <v>107.6</v>
       </c>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
       <c r="R79" s="8">
         <v>48.0</v>
       </c>
-      <c r="S79" s="44"/>
+      <c r="S79" s="45"/>
       <c r="T79" s="8">
         <v>49.0</v>
       </c>
-      <c r="U79" s="43"/>
+      <c r="U79" s="44"/>
       <c r="V79" s="8" t="s">
         <v>42</v>
       </c>
@@ -8766,7 +8764,7 @@
         <v>45</v>
       </c>
       <c r="Z79" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA79" s="11">
         <v>1.0</v>
@@ -8790,10 +8788,10 @@
         <v>0.0</v>
       </c>
       <c r="AH79" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI79" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ79" s="3" t="s">
         <v>51</v>
@@ -8802,17 +8800,17 @@
       <c r="AL79" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM79" s="42"/>
-      <c r="AN79" s="42"/>
-      <c r="AO79" s="42"/>
-      <c r="AP79" s="42"/>
+      <c r="AM79" s="43"/>
+      <c r="AN79" s="43"/>
+      <c r="AO79" s="43"/>
+      <c r="AP79" s="43"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8">
         <v>30.0</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C80" s="22">
         <v>44.1557693806558</v>
@@ -8835,26 +8833,26 @@
       <c r="I80" s="8">
         <v>4.7</v>
       </c>
-      <c r="J80" s="43"/>
+      <c r="J80" s="44"/>
       <c r="K80" s="8">
         <v>66.4</v>
       </c>
       <c r="L80" s="8">
         <v>97.1</v>
       </c>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
       <c r="R80" s="8">
         <v>48.0</v>
       </c>
-      <c r="S80" s="44"/>
+      <c r="S80" s="45"/>
       <c r="T80" s="8">
         <v>49.0</v>
       </c>
-      <c r="U80" s="43"/>
+      <c r="U80" s="44"/>
       <c r="V80" s="8" t="s">
         <v>42</v>
       </c>
@@ -8868,7 +8866,7 @@
         <v>45</v>
       </c>
       <c r="Z80" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA80" s="11">
         <v>1.0</v>
@@ -8892,10 +8890,10 @@
         <v>0.0</v>
       </c>
       <c r="AH80" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI80" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ80" s="3" t="s">
         <v>51</v>
@@ -8904,17 +8902,17 @@
       <c r="AL80" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM80" s="42"/>
-      <c r="AN80" s="42"/>
-      <c r="AO80" s="42"/>
-      <c r="AP80" s="42"/>
+      <c r="AM80" s="43"/>
+      <c r="AN80" s="43"/>
+      <c r="AO80" s="43"/>
+      <c r="AP80" s="43"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8">
         <v>31.0</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C81" s="22">
         <v>44.0707333436925</v>
@@ -8937,26 +8935,26 @@
       <c r="I81" s="8">
         <v>10.5</v>
       </c>
-      <c r="J81" s="43"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="8">
         <v>63.5</v>
       </c>
       <c r="L81" s="8">
         <v>89.1</v>
       </c>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
       <c r="R81" s="8">
         <v>48.0</v>
       </c>
-      <c r="S81" s="44"/>
+      <c r="S81" s="45"/>
       <c r="T81" s="8">
         <v>49.0</v>
       </c>
-      <c r="U81" s="43"/>
+      <c r="U81" s="44"/>
       <c r="V81" s="8" t="s">
         <v>42</v>
       </c>
@@ -8970,7 +8968,7 @@
         <v>45</v>
       </c>
       <c r="Z81" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA81" s="11">
         <v>1.0</v>
@@ -8994,10 +8992,10 @@
         <v>0.0</v>
       </c>
       <c r="AH81" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI81" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ81" s="3" t="s">
         <v>51</v>
@@ -9006,17 +9004,17 @@
       <c r="AL81" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM81" s="42"/>
-      <c r="AN81" s="42"/>
-      <c r="AO81" s="42"/>
-      <c r="AP81" s="42"/>
+      <c r="AM81" s="43"/>
+      <c r="AN81" s="43"/>
+      <c r="AO81" s="43"/>
+      <c r="AP81" s="43"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8">
         <v>32.0</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C82" s="22">
         <v>44.1097154497937</v>
@@ -9039,26 +9037,26 @@
       <c r="I82" s="8">
         <v>3.3</v>
       </c>
-      <c r="J82" s="43"/>
+      <c r="J82" s="44"/>
       <c r="K82" s="8">
         <v>64.6</v>
       </c>
       <c r="L82" s="8">
         <v>96.4</v>
       </c>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
       <c r="R82" s="8">
         <v>48.0</v>
       </c>
-      <c r="S82" s="44"/>
+      <c r="S82" s="45"/>
       <c r="T82" s="8">
         <v>49.0</v>
       </c>
-      <c r="U82" s="43"/>
+      <c r="U82" s="44"/>
       <c r="V82" s="8" t="s">
         <v>42</v>
       </c>
@@ -9072,7 +9070,7 @@
         <v>45</v>
       </c>
       <c r="Z82" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA82" s="11">
         <v>1.0</v>
@@ -9096,10 +9094,10 @@
         <v>0.0</v>
       </c>
       <c r="AH82" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI82" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ82" s="3" t="s">
         <v>51</v>
@@ -9108,17 +9106,17 @@
       <c r="AL82" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM82" s="42"/>
-      <c r="AN82" s="42"/>
-      <c r="AO82" s="42"/>
-      <c r="AP82" s="42"/>
+      <c r="AM82" s="43"/>
+      <c r="AN82" s="43"/>
+      <c r="AO82" s="43"/>
+      <c r="AP82" s="43"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8">
         <v>33.0</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C83" s="22">
         <v>44.0800675816428</v>
@@ -9141,26 +9139,26 @@
       <c r="I83" s="8">
         <v>2.8</v>
       </c>
-      <c r="J83" s="43"/>
+      <c r="J83" s="44"/>
       <c r="K83" s="8">
         <v>60.7</v>
       </c>
       <c r="L83" s="8">
         <v>107.0</v>
       </c>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
       <c r="R83" s="8">
         <v>48.0</v>
       </c>
-      <c r="S83" s="44"/>
+      <c r="S83" s="45"/>
       <c r="T83" s="8">
         <v>49.0</v>
       </c>
-      <c r="U83" s="43"/>
+      <c r="U83" s="44"/>
       <c r="V83" s="8" t="s">
         <v>42</v>
       </c>
@@ -9174,7 +9172,7 @@
         <v>45</v>
       </c>
       <c r="Z83" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA83" s="11">
         <v>1.0</v>
@@ -9198,10 +9196,10 @@
         <v>0.0</v>
       </c>
       <c r="AH83" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI83" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ83" s="3" t="s">
         <v>51</v>
@@ -9210,17 +9208,17 @@
       <c r="AL83" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM83" s="42"/>
-      <c r="AN83" s="42"/>
-      <c r="AO83" s="42"/>
-      <c r="AP83" s="42"/>
+      <c r="AM83" s="43"/>
+      <c r="AN83" s="43"/>
+      <c r="AO83" s="43"/>
+      <c r="AP83" s="43"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8">
         <v>34.0</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C84" s="22">
         <v>44.1683800487411</v>
@@ -9243,26 +9241,26 @@
       <c r="I84" s="8">
         <v>5.2</v>
       </c>
-      <c r="J84" s="43"/>
+      <c r="J84" s="44"/>
       <c r="K84" s="8">
         <v>65.9</v>
       </c>
       <c r="L84" s="8">
         <v>114.3</v>
       </c>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
       <c r="R84" s="8">
         <v>48.0</v>
       </c>
-      <c r="S84" s="44"/>
+      <c r="S84" s="45"/>
       <c r="T84" s="8">
         <v>49.0</v>
       </c>
-      <c r="U84" s="43"/>
+      <c r="U84" s="44"/>
       <c r="V84" s="8" t="s">
         <v>42</v>
       </c>
@@ -9276,7 +9274,7 @@
         <v>45</v>
       </c>
       <c r="Z84" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA84" s="11">
         <v>1.0</v>
@@ -9300,10 +9298,10 @@
         <v>0.0</v>
       </c>
       <c r="AH84" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ84" s="3" t="s">
         <v>51</v>
@@ -9312,17 +9310,17 @@
       <c r="AL84" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM84" s="42"/>
-      <c r="AN84" s="42"/>
-      <c r="AO84" s="42"/>
-      <c r="AP84" s="42"/>
+      <c r="AM84" s="43"/>
+      <c r="AN84" s="43"/>
+      <c r="AO84" s="43"/>
+      <c r="AP84" s="43"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8">
         <v>35.0</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C85" s="22">
         <v>44.1347106326256</v>
@@ -9345,26 +9343,26 @@
       <c r="I85" s="8">
         <v>7.1</v>
       </c>
-      <c r="J85" s="43"/>
+      <c r="J85" s="44"/>
       <c r="K85" s="8">
         <v>62.6</v>
       </c>
       <c r="L85" s="8">
         <v>118.7</v>
       </c>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
       <c r="R85" s="8">
         <v>48.0</v>
       </c>
-      <c r="S85" s="44"/>
+      <c r="S85" s="45"/>
       <c r="T85" s="8">
         <v>49.0</v>
       </c>
-      <c r="U85" s="43"/>
+      <c r="U85" s="44"/>
       <c r="V85" s="8" t="s">
         <v>42</v>
       </c>
@@ -9378,7 +9376,7 @@
         <v>45</v>
       </c>
       <c r="Z85" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA85" s="11">
         <v>1.0</v>
@@ -9402,10 +9400,10 @@
         <v>0.0</v>
       </c>
       <c r="AH85" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI85" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ85" s="3" t="s">
         <v>51</v>
@@ -9414,17 +9412,17 @@
       <c r="AL85" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM85" s="42"/>
-      <c r="AN85" s="42"/>
-      <c r="AO85" s="42"/>
-      <c r="AP85" s="42"/>
+      <c r="AM85" s="43"/>
+      <c r="AN85" s="43"/>
+      <c r="AO85" s="43"/>
+      <c r="AP85" s="43"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8">
         <v>36.0</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C86" s="22">
         <v>44.1029484802264</v>
@@ -9447,26 +9445,26 @@
       <c r="I86" s="8">
         <v>7.3</v>
       </c>
-      <c r="J86" s="43"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="8">
         <v>65.3</v>
       </c>
       <c r="L86" s="8">
         <v>105.0</v>
       </c>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
       <c r="R86" s="8">
         <v>48.0</v>
       </c>
-      <c r="S86" s="44"/>
+      <c r="S86" s="45"/>
       <c r="T86" s="8">
         <v>49.0</v>
       </c>
-      <c r="U86" s="43"/>
+      <c r="U86" s="44"/>
       <c r="V86" s="8" t="s">
         <v>42</v>
       </c>
@@ -9480,7 +9478,7 @@
         <v>45</v>
       </c>
       <c r="Z86" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA86" s="11">
         <v>1.0</v>
@@ -9504,10 +9502,10 @@
         <v>0.0</v>
       </c>
       <c r="AH86" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI86" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ86" s="3" t="s">
         <v>51</v>
@@ -9516,17 +9514,17 @@
       <c r="AL86" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM86" s="42"/>
-      <c r="AN86" s="42"/>
-      <c r="AO86" s="42"/>
-      <c r="AP86" s="42"/>
+      <c r="AM86" s="43"/>
+      <c r="AN86" s="43"/>
+      <c r="AO86" s="43"/>
+      <c r="AP86" s="43"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8">
         <v>37.0</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" s="22">
         <v>44.0705463406461</v>
@@ -9549,26 +9547,26 @@
       <c r="I87" s="8">
         <v>5.5</v>
       </c>
-      <c r="J87" s="43"/>
+      <c r="J87" s="44"/>
       <c r="K87" s="8">
         <v>66.0</v>
       </c>
       <c r="L87" s="8">
         <v>121.4</v>
       </c>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
       <c r="R87" s="8">
         <v>48.0</v>
       </c>
-      <c r="S87" s="44"/>
+      <c r="S87" s="45"/>
       <c r="T87" s="8">
         <v>49.0</v>
       </c>
-      <c r="U87" s="43"/>
+      <c r="U87" s="44"/>
       <c r="V87" s="8" t="s">
         <v>42</v>
       </c>
@@ -9582,7 +9580,7 @@
         <v>45</v>
       </c>
       <c r="Z87" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA87" s="11">
         <v>1.0</v>
@@ -9606,10 +9604,10 @@
         <v>0.0</v>
       </c>
       <c r="AH87" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI87" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ87" s="3" t="s">
         <v>51</v>
@@ -9618,17 +9616,17 @@
       <c r="AL87" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM87" s="42"/>
-      <c r="AN87" s="42"/>
-      <c r="AO87" s="42"/>
-      <c r="AP87" s="42"/>
+      <c r="AM87" s="43"/>
+      <c r="AN87" s="43"/>
+      <c r="AO87" s="43"/>
+      <c r="AP87" s="43"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8">
         <v>38.0</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" s="22">
         <v>44.1621003049159</v>
@@ -9651,26 +9649,26 @@
       <c r="I88" s="8">
         <v>3.8</v>
       </c>
-      <c r="J88" s="43"/>
+      <c r="J88" s="44"/>
       <c r="K88" s="8">
         <v>63.8</v>
       </c>
       <c r="L88" s="8">
         <v>99.7</v>
       </c>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
       <c r="R88" s="8">
         <v>48.0</v>
       </c>
-      <c r="S88" s="44"/>
+      <c r="S88" s="45"/>
       <c r="T88" s="8">
         <v>49.0</v>
       </c>
-      <c r="U88" s="43"/>
+      <c r="U88" s="44"/>
       <c r="V88" s="8" t="s">
         <v>42</v>
       </c>
@@ -9684,7 +9682,7 @@
         <v>45</v>
       </c>
       <c r="Z88" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA88" s="11">
         <v>1.0</v>
@@ -9708,10 +9706,10 @@
         <v>0.0</v>
       </c>
       <c r="AH88" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI88" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ88" s="3" t="s">
         <v>51</v>
@@ -9720,17 +9718,17 @@
       <c r="AL88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM88" s="42"/>
-      <c r="AN88" s="42"/>
-      <c r="AO88" s="42"/>
-      <c r="AP88" s="42"/>
+      <c r="AM88" s="43"/>
+      <c r="AN88" s="43"/>
+      <c r="AO88" s="43"/>
+      <c r="AP88" s="43"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8">
         <v>39.0</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="22">
         <v>44.140725533339</v>
@@ -9753,26 +9751,26 @@
       <c r="I89" s="8">
         <v>4.3</v>
       </c>
-      <c r="J89" s="43"/>
+      <c r="J89" s="44"/>
       <c r="K89" s="8">
         <v>64.4</v>
       </c>
       <c r="L89" s="8">
         <v>104.9</v>
       </c>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
       <c r="R89" s="8">
         <v>48.0</v>
       </c>
-      <c r="S89" s="44"/>
+      <c r="S89" s="45"/>
       <c r="T89" s="8">
         <v>49.0</v>
       </c>
-      <c r="U89" s="43"/>
+      <c r="U89" s="44"/>
       <c r="V89" s="8" t="s">
         <v>42</v>
       </c>
@@ -9786,7 +9784,7 @@
         <v>45</v>
       </c>
       <c r="Z89" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA89" s="11">
         <v>1.0</v>
@@ -9810,10 +9808,10 @@
         <v>0.0</v>
       </c>
       <c r="AH89" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI89" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ89" s="3" t="s">
         <v>51</v>
@@ -9822,17 +9820,17 @@
       <c r="AL89" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM89" s="42"/>
-      <c r="AN89" s="42"/>
-      <c r="AO89" s="42"/>
-      <c r="AP89" s="42"/>
+      <c r="AM89" s="43"/>
+      <c r="AN89" s="43"/>
+      <c r="AO89" s="43"/>
+      <c r="AP89" s="43"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8">
         <v>40.0</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" s="22">
         <v>44.1638550553482</v>
@@ -9855,26 +9853,26 @@
       <c r="I90" s="8">
         <v>2.6</v>
       </c>
-      <c r="J90" s="43"/>
+      <c r="J90" s="44"/>
       <c r="K90" s="8">
         <v>59.8</v>
       </c>
       <c r="L90" s="8">
         <v>103.9</v>
       </c>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
       <c r="R90" s="8">
         <v>48.0</v>
       </c>
-      <c r="S90" s="44"/>
+      <c r="S90" s="45"/>
       <c r="T90" s="8">
         <v>49.0</v>
       </c>
-      <c r="U90" s="43"/>
+      <c r="U90" s="44"/>
       <c r="V90" s="8" t="s">
         <v>42</v>
       </c>
@@ -9888,7 +9886,7 @@
         <v>45</v>
       </c>
       <c r="Z90" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA90" s="11">
         <v>1.0</v>
@@ -9912,10 +9910,10 @@
         <v>0.0</v>
       </c>
       <c r="AH90" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI90" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ90" s="3" t="s">
         <v>51</v>
@@ -9924,17 +9922,17 @@
       <c r="AL90" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM90" s="42"/>
-      <c r="AN90" s="42"/>
-      <c r="AO90" s="42"/>
-      <c r="AP90" s="42"/>
+      <c r="AM90" s="43"/>
+      <c r="AN90" s="43"/>
+      <c r="AO90" s="43"/>
+      <c r="AP90" s="43"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8">
         <v>41.0</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="22">
         <v>44.9187726830326</v>
@@ -9957,26 +9955,26 @@
       <c r="I91" s="8">
         <v>5.5</v>
       </c>
-      <c r="J91" s="43"/>
+      <c r="J91" s="44"/>
       <c r="K91" s="8">
         <v>60.0</v>
       </c>
       <c r="L91" s="8">
         <v>110.7</v>
       </c>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="43"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
       <c r="R91" s="8">
         <v>48.0</v>
       </c>
-      <c r="S91" s="44"/>
+      <c r="S91" s="45"/>
       <c r="T91" s="8">
         <v>49.0</v>
       </c>
-      <c r="U91" s="43"/>
+      <c r="U91" s="44"/>
       <c r="V91" s="8" t="s">
         <v>42</v>
       </c>
@@ -9990,7 +9988,7 @@
         <v>45</v>
       </c>
       <c r="Z91" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA91" s="11">
         <v>1.0</v>
@@ -10014,10 +10012,10 @@
         <v>0.0</v>
       </c>
       <c r="AH91" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI91" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ91" s="3" t="s">
         <v>51</v>
@@ -10026,17 +10024,17 @@
       <c r="AL91" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM91" s="42"/>
-      <c r="AN91" s="42"/>
-      <c r="AO91" s="42"/>
-      <c r="AP91" s="42"/>
+      <c r="AM91" s="43"/>
+      <c r="AN91" s="43"/>
+      <c r="AO91" s="43"/>
+      <c r="AP91" s="43"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8">
         <v>42.0</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" s="22">
         <v>44.0997023212719</v>
@@ -10059,26 +10057,26 @@
       <c r="I92" s="8">
         <v>3.6</v>
       </c>
-      <c r="J92" s="43"/>
+      <c r="J92" s="44"/>
       <c r="K92" s="8">
         <v>62.2</v>
       </c>
       <c r="L92" s="8">
         <v>103.3</v>
       </c>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
       <c r="R92" s="8">
         <v>48.0</v>
       </c>
-      <c r="S92" s="44"/>
+      <c r="S92" s="45"/>
       <c r="T92" s="8">
         <v>49.0</v>
       </c>
-      <c r="U92" s="43"/>
+      <c r="U92" s="44"/>
       <c r="V92" s="8" t="s">
         <v>42</v>
       </c>
@@ -10092,7 +10090,7 @@
         <v>45</v>
       </c>
       <c r="Z92" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA92" s="11">
         <v>1.0</v>
@@ -10116,10 +10114,10 @@
         <v>0.0</v>
       </c>
       <c r="AH92" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ92" s="3" t="s">
         <v>51</v>
@@ -10128,17 +10126,17 @@
       <c r="AL92" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM92" s="42"/>
-      <c r="AN92" s="42"/>
-      <c r="AO92" s="42"/>
-      <c r="AP92" s="42"/>
+      <c r="AM92" s="43"/>
+      <c r="AN92" s="43"/>
+      <c r="AO92" s="43"/>
+      <c r="AP92" s="43"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8">
         <v>43.0</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="22">
         <v>44.1158116151498</v>
@@ -10161,26 +10159,26 @@
       <c r="I93" s="8">
         <v>4.3</v>
       </c>
-      <c r="J93" s="43"/>
+      <c r="J93" s="44"/>
       <c r="K93" s="8">
         <v>58.1</v>
       </c>
       <c r="L93" s="8">
         <v>114.2</v>
       </c>
-      <c r="M93" s="43"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
-      <c r="Q93" s="43"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
       <c r="R93" s="8">
         <v>48.0</v>
       </c>
-      <c r="S93" s="44"/>
+      <c r="S93" s="45"/>
       <c r="T93" s="8">
         <v>49.0</v>
       </c>
-      <c r="U93" s="43"/>
+      <c r="U93" s="44"/>
       <c r="V93" s="8" t="s">
         <v>42</v>
       </c>
@@ -10194,7 +10192,7 @@
         <v>45</v>
       </c>
       <c r="Z93" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA93" s="11">
         <v>1.0</v>
@@ -10218,10 +10216,10 @@
         <v>0.0</v>
       </c>
       <c r="AH93" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI93" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ93" s="3" t="s">
         <v>51</v>
@@ -10230,17 +10228,17 @@
       <c r="AL93" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM93" s="42"/>
-      <c r="AN93" s="42"/>
-      <c r="AO93" s="42"/>
-      <c r="AP93" s="42"/>
+      <c r="AM93" s="43"/>
+      <c r="AN93" s="43"/>
+      <c r="AO93" s="43"/>
+      <c r="AP93" s="43"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8">
         <v>44.0</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="22">
         <v>44.0816677550873</v>
@@ -10263,26 +10261,26 @@
       <c r="I94" s="8">
         <v>6.4</v>
       </c>
-      <c r="J94" s="43"/>
+      <c r="J94" s="44"/>
       <c r="K94" s="8">
         <v>56.9</v>
       </c>
       <c r="L94" s="8">
         <v>106.5</v>
       </c>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
-      <c r="Q94" s="43"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
       <c r="R94" s="8">
         <v>48.0</v>
       </c>
-      <c r="S94" s="44"/>
+      <c r="S94" s="45"/>
       <c r="T94" s="8">
         <v>49.0</v>
       </c>
-      <c r="U94" s="43"/>
+      <c r="U94" s="44"/>
       <c r="V94" s="8" t="s">
         <v>42</v>
       </c>
@@ -10296,7 +10294,7 @@
         <v>45</v>
       </c>
       <c r="Z94" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA94" s="11">
         <v>1.0</v>
@@ -10320,10 +10318,10 @@
         <v>0.0</v>
       </c>
       <c r="AH94" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI94" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ94" s="3" t="s">
         <v>51</v>
@@ -10332,17 +10330,17 @@
       <c r="AL94" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM94" s="42"/>
-      <c r="AN94" s="42"/>
-      <c r="AO94" s="42"/>
-      <c r="AP94" s="42"/>
+      <c r="AM94" s="43"/>
+      <c r="AN94" s="43"/>
+      <c r="AO94" s="43"/>
+      <c r="AP94" s="43"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8">
         <v>45.0</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C95" s="22">
         <v>44.1386042862076</v>
@@ -10365,26 +10363,26 @@
       <c r="I95" s="8">
         <v>2.2</v>
       </c>
-      <c r="J95" s="43"/>
+      <c r="J95" s="44"/>
       <c r="K95" s="8">
         <v>56.8</v>
       </c>
       <c r="L95" s="8">
         <v>117.3</v>
       </c>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
       <c r="R95" s="8">
         <v>48.0</v>
       </c>
-      <c r="S95" s="44"/>
+      <c r="S95" s="45"/>
       <c r="T95" s="8">
         <v>49.0</v>
       </c>
-      <c r="U95" s="43"/>
+      <c r="U95" s="44"/>
       <c r="V95" s="8" t="s">
         <v>42</v>
       </c>
@@ -10398,7 +10396,7 @@
         <v>45</v>
       </c>
       <c r="Z95" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA95" s="11">
         <v>1.0</v>
@@ -10422,10 +10420,10 @@
         <v>0.0</v>
       </c>
       <c r="AH95" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI95" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ95" s="3" t="s">
         <v>51</v>
@@ -10434,17 +10432,17 @@
       <c r="AL95" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM95" s="42"/>
-      <c r="AN95" s="42"/>
-      <c r="AO95" s="42"/>
-      <c r="AP95" s="42"/>
+      <c r="AM95" s="43"/>
+      <c r="AN95" s="43"/>
+      <c r="AO95" s="43"/>
+      <c r="AP95" s="43"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8">
         <v>46.0</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C96" s="22">
         <v>44.1088400427262</v>
@@ -10467,26 +10465,26 @@
       <c r="I96" s="8">
         <v>5.7</v>
       </c>
-      <c r="J96" s="43"/>
+      <c r="J96" s="44"/>
       <c r="K96" s="8">
         <v>51.9</v>
       </c>
       <c r="L96" s="8">
         <v>121.3</v>
       </c>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
       <c r="R96" s="8">
         <v>48.0</v>
       </c>
-      <c r="S96" s="44"/>
+      <c r="S96" s="45"/>
       <c r="T96" s="8">
         <v>49.0</v>
       </c>
-      <c r="U96" s="43"/>
+      <c r="U96" s="44"/>
       <c r="V96" s="8" t="s">
         <v>42</v>
       </c>
@@ -10500,7 +10498,7 @@
         <v>45</v>
       </c>
       <c r="Z96" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA96" s="11">
         <v>1.0</v>
@@ -10524,10 +10522,10 @@
         <v>0.0</v>
       </c>
       <c r="AH96" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI96" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ96" s="3" t="s">
         <v>51</v>
@@ -10536,17 +10534,17 @@
       <c r="AL96" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM96" s="42"/>
-      <c r="AN96" s="42"/>
-      <c r="AO96" s="42"/>
-      <c r="AP96" s="42"/>
+      <c r="AM96" s="43"/>
+      <c r="AN96" s="43"/>
+      <c r="AO96" s="43"/>
+      <c r="AP96" s="43"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8">
         <v>47.0</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C97" s="22">
         <v>44.0786222832367</v>
@@ -10569,26 +10567,26 @@
       <c r="I97" s="8">
         <v>2.1</v>
       </c>
-      <c r="J97" s="43"/>
+      <c r="J97" s="44"/>
       <c r="K97" s="8">
         <v>58.4</v>
       </c>
       <c r="L97" s="8">
         <v>112.7</v>
       </c>
-      <c r="M97" s="43"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
       <c r="R97" s="8">
         <v>48.0</v>
       </c>
-      <c r="S97" s="44"/>
+      <c r="S97" s="45"/>
       <c r="T97" s="8">
         <v>49.0</v>
       </c>
-      <c r="U97" s="43"/>
+      <c r="U97" s="44"/>
       <c r="V97" s="8" t="s">
         <v>42</v>
       </c>
@@ -10602,7 +10600,7 @@
         <v>45</v>
       </c>
       <c r="Z97" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA97" s="11">
         <v>1.0</v>
@@ -10626,10 +10624,10 @@
         <v>0.0</v>
       </c>
       <c r="AH97" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI97" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ97" s="3" t="s">
         <v>51</v>
@@ -10638,17 +10636,17 @@
       <c r="AL97" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM97" s="42"/>
-      <c r="AN97" s="42"/>
-      <c r="AO97" s="42"/>
-      <c r="AP97" s="42"/>
+      <c r="AM97" s="43"/>
+      <c r="AN97" s="43"/>
+      <c r="AO97" s="43"/>
+      <c r="AP97" s="43"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8">
         <v>48.0</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" s="22">
         <v>44.0933029884217</v>
@@ -10671,26 +10669,26 @@
       <c r="I98" s="8">
         <v>3.6</v>
       </c>
-      <c r="J98" s="43"/>
+      <c r="J98" s="44"/>
       <c r="K98" s="8">
         <v>54.4</v>
       </c>
       <c r="L98" s="8">
         <v>114.8</v>
       </c>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
       <c r="R98" s="8">
         <v>48.0</v>
       </c>
-      <c r="S98" s="44"/>
+      <c r="S98" s="45"/>
       <c r="T98" s="8">
         <v>49.0</v>
       </c>
-      <c r="U98" s="43"/>
+      <c r="U98" s="44"/>
       <c r="V98" s="8" t="s">
         <v>42</v>
       </c>
@@ -10704,7 +10702,7 @@
         <v>45</v>
       </c>
       <c r="Z98" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA98" s="11">
         <v>1.0</v>
@@ -10728,10 +10726,10 @@
         <v>0.0</v>
       </c>
       <c r="AH98" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI98" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ98" s="3" t="s">
         <v>51</v>
@@ -10740,17 +10738,17 @@
       <c r="AL98" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM98" s="42"/>
-      <c r="AN98" s="42"/>
-      <c r="AO98" s="42"/>
-      <c r="AP98" s="42"/>
+      <c r="AM98" s="43"/>
+      <c r="AN98" s="43"/>
+      <c r="AO98" s="43"/>
+      <c r="AP98" s="43"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8">
         <v>49.0</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="22">
         <v>44.0789513529609</v>
@@ -10773,26 +10771,26 @@
       <c r="I99" s="8">
         <v>1.4</v>
       </c>
-      <c r="J99" s="43"/>
+      <c r="J99" s="44"/>
       <c r="K99" s="8">
         <v>56.0</v>
       </c>
       <c r="L99" s="8">
         <v>111.7</v>
       </c>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
       <c r="R99" s="8">
         <v>48.0</v>
       </c>
-      <c r="S99" s="44"/>
+      <c r="S99" s="45"/>
       <c r="T99" s="8">
         <v>49.0</v>
       </c>
-      <c r="U99" s="43"/>
+      <c r="U99" s="44"/>
       <c r="V99" s="8" t="s">
         <v>42</v>
       </c>
@@ -10806,7 +10804,7 @@
         <v>45</v>
       </c>
       <c r="Z99" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA99" s="11">
         <v>1.0</v>
@@ -10830,10 +10828,10 @@
         <v>0.0</v>
       </c>
       <c r="AH99" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI99" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ99" s="3" t="s">
         <v>51</v>
@@ -10842,17 +10840,17 @@
       <c r="AL99" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM99" s="42"/>
-      <c r="AN99" s="42"/>
-      <c r="AO99" s="42"/>
-      <c r="AP99" s="42"/>
+      <c r="AM99" s="43"/>
+      <c r="AN99" s="43"/>
+      <c r="AO99" s="43"/>
+      <c r="AP99" s="43"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8">
         <v>50.0</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C100" s="22">
         <v>44.0595148571566</v>
@@ -10875,26 +10873,26 @@
       <c r="I100" s="8">
         <v>7.6</v>
       </c>
-      <c r="J100" s="43"/>
+      <c r="J100" s="44"/>
       <c r="K100" s="8">
         <v>55.0</v>
       </c>
       <c r="L100" s="8">
         <v>109.0</v>
       </c>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="44"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="44"/>
+      <c r="Q100" s="44"/>
       <c r="R100" s="8">
         <v>48.0</v>
       </c>
-      <c r="S100" s="44"/>
+      <c r="S100" s="45"/>
       <c r="T100" s="8">
         <v>49.0</v>
       </c>
-      <c r="U100" s="43"/>
+      <c r="U100" s="44"/>
       <c r="V100" s="8" t="s">
         <v>42</v>
       </c>
@@ -10908,7 +10906,7 @@
         <v>45</v>
       </c>
       <c r="Z100" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA100" s="11">
         <v>1.0</v>
@@ -10932,10 +10930,10 @@
         <v>0.0</v>
       </c>
       <c r="AH100" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI100" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ100" s="3" t="s">
         <v>51</v>
@@ -10944,17 +10942,17 @@
       <c r="AL100" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM100" s="42"/>
-      <c r="AN100" s="42"/>
-      <c r="AO100" s="42"/>
-      <c r="AP100" s="42"/>
+      <c r="AM100" s="43"/>
+      <c r="AN100" s="43"/>
+      <c r="AO100" s="43"/>
+      <c r="AP100" s="43"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8">
         <v>51.0</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C101" s="22">
         <v>44.1946717438546</v>
@@ -10977,26 +10975,26 @@
       <c r="I101" s="8">
         <v>5.9</v>
       </c>
-      <c r="J101" s="43"/>
+      <c r="J101" s="44"/>
       <c r="K101" s="8">
         <v>43.8</v>
       </c>
       <c r="L101" s="8">
         <v>129.5</v>
       </c>
-      <c r="M101" s="43"/>
-      <c r="N101" s="43"/>
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
-      <c r="Q101" s="43"/>
+      <c r="M101" s="44"/>
+      <c r="N101" s="44"/>
+      <c r="O101" s="44"/>
+      <c r="P101" s="44"/>
+      <c r="Q101" s="44"/>
       <c r="R101" s="8">
         <v>48.0</v>
       </c>
-      <c r="S101" s="44"/>
+      <c r="S101" s="45"/>
       <c r="T101" s="8">
         <v>49.0</v>
       </c>
-      <c r="U101" s="43"/>
+      <c r="U101" s="44"/>
       <c r="V101" s="8" t="s">
         <v>42</v>
       </c>
@@ -11010,7 +11008,7 @@
         <v>45</v>
       </c>
       <c r="Z101" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA101" s="11">
         <v>1.0</v>
@@ -11034,10 +11032,10 @@
         <v>0.0</v>
       </c>
       <c r="AH101" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI101" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ101" s="3" t="s">
         <v>51</v>
@@ -11046,17 +11044,17 @@
       <c r="AL101" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM101" s="42"/>
-      <c r="AN101" s="42"/>
-      <c r="AO101" s="42"/>
-      <c r="AP101" s="42"/>
+      <c r="AM101" s="43"/>
+      <c r="AN101" s="43"/>
+      <c r="AO101" s="43"/>
+      <c r="AP101" s="43"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8">
         <v>52.0</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" s="22">
         <v>44.0190776260114</v>
@@ -11079,26 +11077,26 @@
       <c r="I102" s="8">
         <v>3.8</v>
       </c>
-      <c r="J102" s="43"/>
+      <c r="J102" s="44"/>
       <c r="K102" s="8">
         <v>45.1</v>
       </c>
       <c r="L102" s="8">
         <v>133.1</v>
       </c>
-      <c r="M102" s="43"/>
-      <c r="N102" s="43"/>
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
-      <c r="Q102" s="43"/>
+      <c r="M102" s="44"/>
+      <c r="N102" s="44"/>
+      <c r="O102" s="44"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
       <c r="R102" s="8">
         <v>48.0</v>
       </c>
-      <c r="S102" s="44"/>
+      <c r="S102" s="45"/>
       <c r="T102" s="8">
         <v>49.0</v>
       </c>
-      <c r="U102" s="43"/>
+      <c r="U102" s="44"/>
       <c r="V102" s="8" t="s">
         <v>42</v>
       </c>
@@ -11112,7 +11110,7 @@
         <v>45</v>
       </c>
       <c r="Z102" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA102" s="11">
         <v>1.0</v>
@@ -11136,10 +11134,10 @@
         <v>0.0</v>
       </c>
       <c r="AH102" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI102" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ102" s="3" t="s">
         <v>51</v>
@@ -11148,17 +11146,17 @@
       <c r="AL102" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM102" s="42"/>
-      <c r="AN102" s="42"/>
-      <c r="AO102" s="42"/>
-      <c r="AP102" s="42"/>
+      <c r="AM102" s="43"/>
+      <c r="AN102" s="43"/>
+      <c r="AO102" s="43"/>
+      <c r="AP102" s="43"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8">
         <v>55.0</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C103" s="22">
         <v>44.019078</v>
@@ -11181,26 +11179,26 @@
       <c r="I103" s="8">
         <v>4.3</v>
       </c>
-      <c r="J103" s="43"/>
+      <c r="J103" s="44"/>
       <c r="K103" s="8">
         <v>81.4</v>
       </c>
       <c r="L103" s="8">
         <v>63.0</v>
       </c>
-      <c r="M103" s="43"/>
-      <c r="N103" s="43"/>
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
-      <c r="Q103" s="43"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="44"/>
+      <c r="O103" s="44"/>
+      <c r="P103" s="44"/>
+      <c r="Q103" s="44"/>
       <c r="R103" s="8">
         <v>48.0</v>
       </c>
-      <c r="S103" s="44"/>
+      <c r="S103" s="45"/>
       <c r="T103" s="8">
         <v>49.0</v>
       </c>
-      <c r="U103" s="43"/>
+      <c r="U103" s="44"/>
       <c r="V103" s="8" t="s">
         <v>42</v>
       </c>
@@ -11214,7 +11212,7 @@
         <v>45</v>
       </c>
       <c r="Z103" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA103" s="11">
         <v>1.0</v>
@@ -11238,10 +11236,10 @@
         <v>0.0</v>
       </c>
       <c r="AH103" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI103" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ103" s="3" t="s">
         <v>51</v>
@@ -11250,17 +11248,17 @@
       <c r="AL103" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM103" s="42"/>
-      <c r="AN103" s="42"/>
-      <c r="AO103" s="42"/>
-      <c r="AP103" s="42"/>
+      <c r="AM103" s="43"/>
+      <c r="AN103" s="43"/>
+      <c r="AO103" s="43"/>
+      <c r="AP103" s="43"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C104" s="22">
         <v>44.13866001164315</v>
@@ -11280,23 +11278,23 @@
       <c r="H104" s="8">
         <v>95.0</v>
       </c>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
-      <c r="Q104" s="43"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="44"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
       <c r="R104" s="8">
         <v>48.0</v>
       </c>
-      <c r="S104" s="44"/>
+      <c r="S104" s="45"/>
       <c r="T104" s="8">
         <v>49.0</v>
       </c>
-      <c r="U104" s="43"/>
+      <c r="U104" s="44"/>
       <c r="V104" s="8" t="s">
         <v>42</v>
       </c>
@@ -11310,7 +11308,7 @@
         <v>45</v>
       </c>
       <c r="Z104" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA104" s="11">
         <v>1.0</v>
@@ -11321,17 +11319,17 @@
       <c r="AC104" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AD104" s="44"/>
-      <c r="AE104" s="44"/>
+      <c r="AD104" s="45"/>
+      <c r="AE104" s="45"/>
       <c r="AF104" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG104" s="8">
         <v>2.0</v>
       </c>
       <c r="AH104" s="24"/>
       <c r="AI104" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ104" s="3" t="s">
         <v>51</v>
@@ -11340,17 +11338,17 @@
       <c r="AL104" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM104" s="42"/>
-      <c r="AN104" s="42"/>
-      <c r="AO104" s="42"/>
-      <c r="AP104" s="42"/>
+      <c r="AM104" s="43"/>
+      <c r="AN104" s="43"/>
+      <c r="AO104" s="43"/>
+      <c r="AP104" s="43"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8">
         <v>57.0</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C105" s="22">
         <v>44.1</v>
@@ -11373,26 +11371,26 @@
       <c r="I105" s="8">
         <v>9.2</v>
       </c>
-      <c r="J105" s="43"/>
+      <c r="J105" s="44"/>
       <c r="K105" s="8">
         <v>87.1</v>
       </c>
       <c r="L105" s="8">
         <v>166.3</v>
       </c>
-      <c r="M105" s="43"/>
-      <c r="N105" s="43"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
-      <c r="Q105" s="43"/>
+      <c r="M105" s="44"/>
+      <c r="N105" s="44"/>
+      <c r="O105" s="44"/>
+      <c r="P105" s="44"/>
+      <c r="Q105" s="44"/>
       <c r="R105" s="8">
         <v>48.0</v>
       </c>
-      <c r="S105" s="44"/>
+      <c r="S105" s="45"/>
       <c r="T105" s="8">
         <v>49.0</v>
       </c>
-      <c r="U105" s="43"/>
+      <c r="U105" s="44"/>
       <c r="V105" s="8" t="s">
         <v>42</v>
       </c>
@@ -11406,7 +11404,7 @@
         <v>45</v>
       </c>
       <c r="Z105" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA105" s="11">
         <v>1.0</v>
@@ -11430,10 +11428,10 @@
         <v>0.0</v>
       </c>
       <c r="AH105" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI105" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ105" s="3" t="s">
         <v>51</v>
@@ -11442,17 +11440,17 @@
       <c r="AL105" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM105" s="42"/>
-      <c r="AN105" s="42"/>
-      <c r="AO105" s="42"/>
-      <c r="AP105" s="42"/>
+      <c r="AM105" s="43"/>
+      <c r="AN105" s="43"/>
+      <c r="AO105" s="43"/>
+      <c r="AP105" s="43"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8">
         <v>58.0</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C106" s="22">
         <v>44.100759214112</v>
@@ -11475,26 +11473,26 @@
       <c r="I106" s="8">
         <v>3.8</v>
       </c>
-      <c r="J106" s="43"/>
+      <c r="J106" s="44"/>
       <c r="K106" s="8">
         <v>82.6</v>
       </c>
       <c r="L106" s="8">
         <v>10.6</v>
       </c>
-      <c r="M106" s="43"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
-      <c r="Q106" s="43"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="44"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
       <c r="R106" s="8">
         <v>48.0</v>
       </c>
-      <c r="S106" s="44"/>
+      <c r="S106" s="45"/>
       <c r="T106" s="8">
         <v>49.0</v>
       </c>
-      <c r="U106" s="43"/>
+      <c r="U106" s="44"/>
       <c r="V106" s="8" t="s">
         <v>42</v>
       </c>
@@ -11508,7 +11506,7 @@
         <v>45</v>
       </c>
       <c r="Z106" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA106" s="11">
         <v>1.0</v>
@@ -11532,10 +11530,10 @@
         <v>0.0</v>
       </c>
       <c r="AH106" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI106" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ106" s="3" t="s">
         <v>51</v>
@@ -11544,17 +11542,17 @@
       <c r="AL106" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM106" s="42"/>
-      <c r="AN106" s="42"/>
-      <c r="AO106" s="42"/>
-      <c r="AP106" s="42"/>
+      <c r="AM106" s="43"/>
+      <c r="AN106" s="43"/>
+      <c r="AO106" s="43"/>
+      <c r="AP106" s="43"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8">
         <v>59.0</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C107" s="22">
         <v>44.1</v>
@@ -11577,26 +11575,26 @@
       <c r="I107" s="8">
         <v>5.7</v>
       </c>
-      <c r="J107" s="43"/>
+      <c r="J107" s="44"/>
       <c r="K107" s="8">
         <v>86.9</v>
       </c>
       <c r="L107" s="8">
         <v>177.7</v>
       </c>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
-      <c r="Q107" s="43"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="44"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
       <c r="R107" s="8">
         <v>48.0</v>
       </c>
-      <c r="S107" s="44"/>
+      <c r="S107" s="45"/>
       <c r="T107" s="8">
         <v>49.0</v>
       </c>
-      <c r="U107" s="43"/>
+      <c r="U107" s="44"/>
       <c r="V107" s="8" t="s">
         <v>42</v>
       </c>
@@ -11610,7 +11608,7 @@
         <v>45</v>
       </c>
       <c r="Z107" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA107" s="11">
         <v>1.0</v>
@@ -11634,10 +11632,10 @@
         <v>0.0</v>
       </c>
       <c r="AH107" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI107" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ107" s="3" t="s">
         <v>51</v>
@@ -11646,17 +11644,17 @@
       <c r="AL107" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM107" s="42"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="42"/>
+      <c r="AM107" s="43"/>
+      <c r="AN107" s="43"/>
+      <c r="AO107" s="43"/>
+      <c r="AP107" s="43"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8">
         <v>60.0</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C108" s="22">
         <v>44.0830551008803</v>
@@ -11679,26 +11677,26 @@
       <c r="I108" s="8">
         <v>5.4</v>
       </c>
-      <c r="J108" s="43"/>
+      <c r="J108" s="44"/>
       <c r="K108" s="8">
         <v>79.0</v>
       </c>
       <c r="L108" s="8">
         <v>113.4</v>
       </c>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
-      <c r="Q108" s="43"/>
+      <c r="M108" s="44"/>
+      <c r="N108" s="44"/>
+      <c r="O108" s="44"/>
+      <c r="P108" s="44"/>
+      <c r="Q108" s="44"/>
       <c r="R108" s="8">
         <v>48.0</v>
       </c>
-      <c r="S108" s="44"/>
+      <c r="S108" s="45"/>
       <c r="T108" s="8">
         <v>49.0</v>
       </c>
-      <c r="U108" s="43"/>
+      <c r="U108" s="44"/>
       <c r="V108" s="8" t="s">
         <v>42</v>
       </c>
@@ -11712,7 +11710,7 @@
         <v>45</v>
       </c>
       <c r="Z108" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA108" s="11">
         <v>1.0</v>
@@ -11736,10 +11734,10 @@
         <v>0.0</v>
       </c>
       <c r="AH108" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI108" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ108" s="3" t="s">
         <v>51</v>
@@ -11748,17 +11746,17 @@
       <c r="AL108" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM108" s="42"/>
-      <c r="AN108" s="42"/>
-      <c r="AO108" s="42"/>
-      <c r="AP108" s="42"/>
+      <c r="AM108" s="43"/>
+      <c r="AN108" s="43"/>
+      <c r="AO108" s="43"/>
+      <c r="AP108" s="43"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8">
         <v>61.0</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C109" s="22">
         <v>44.1588955844861</v>
@@ -11781,26 +11779,26 @@
       <c r="I109" s="8">
         <v>5.5</v>
       </c>
-      <c r="J109" s="43"/>
+      <c r="J109" s="44"/>
       <c r="K109" s="8">
         <v>81.7</v>
       </c>
       <c r="L109" s="8">
         <v>86.6</v>
       </c>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
-      <c r="Q109" s="43"/>
+      <c r="M109" s="44"/>
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="44"/>
       <c r="R109" s="8">
         <v>48.0</v>
       </c>
-      <c r="S109" s="44"/>
+      <c r="S109" s="45"/>
       <c r="T109" s="8">
         <v>49.0</v>
       </c>
-      <c r="U109" s="43"/>
+      <c r="U109" s="44"/>
       <c r="V109" s="8" t="s">
         <v>42</v>
       </c>
@@ -11814,7 +11812,7 @@
         <v>45</v>
       </c>
       <c r="Z109" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA109" s="11">
         <v>1.0</v>
@@ -11838,10 +11836,10 @@
         <v>0.0</v>
       </c>
       <c r="AH109" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI109" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ109" s="3" t="s">
         <v>51</v>
@@ -11850,17 +11848,17 @@
       <c r="AL109" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM109" s="42"/>
-      <c r="AN109" s="42"/>
-      <c r="AO109" s="42"/>
-      <c r="AP109" s="42"/>
+      <c r="AM109" s="43"/>
+      <c r="AN109" s="43"/>
+      <c r="AO109" s="43"/>
+      <c r="AP109" s="43"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8">
         <v>62.0</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C110" s="22">
         <v>44.1</v>
@@ -11883,26 +11881,26 @@
       <c r="I110" s="8">
         <v>5.9</v>
       </c>
-      <c r="J110" s="43"/>
+      <c r="J110" s="44"/>
       <c r="K110" s="8">
         <v>80.1</v>
       </c>
       <c r="L110" s="8">
         <v>171.8</v>
       </c>
-      <c r="M110" s="43"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
-      <c r="Q110" s="43"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="44"/>
+      <c r="O110" s="44"/>
+      <c r="P110" s="44"/>
+      <c r="Q110" s="44"/>
       <c r="R110" s="8">
         <v>48.0</v>
       </c>
-      <c r="S110" s="44"/>
+      <c r="S110" s="45"/>
       <c r="T110" s="8">
         <v>49.0</v>
       </c>
-      <c r="U110" s="43"/>
+      <c r="U110" s="44"/>
       <c r="V110" s="8" t="s">
         <v>42</v>
       </c>
@@ -11916,7 +11914,7 @@
         <v>45</v>
       </c>
       <c r="Z110" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA110" s="11">
         <v>1.0</v>
@@ -11940,10 +11938,10 @@
         <v>0.0</v>
       </c>
       <c r="AH110" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI110" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ110" s="3" t="s">
         <v>51</v>
@@ -11952,17 +11950,17 @@
       <c r="AL110" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM110" s="42"/>
-      <c r="AN110" s="42"/>
-      <c r="AO110" s="42"/>
-      <c r="AP110" s="42"/>
+      <c r="AM110" s="43"/>
+      <c r="AN110" s="43"/>
+      <c r="AO110" s="43"/>
+      <c r="AP110" s="43"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="C111" s="22">
         <v>44.10711831657974</v>
@@ -11982,60 +11980,60 @@
       <c r="H111" s="8">
         <v>266.0</v>
       </c>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="43"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="43"/>
-      <c r="Q111" s="43"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="44"/>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="44"/>
       <c r="R111" s="32">
         <v>48.0</v>
       </c>
-      <c r="S111" s="44"/>
+      <c r="S111" s="45"/>
       <c r="T111" s="32">
         <v>49.0</v>
       </c>
-      <c r="U111" s="43"/>
+      <c r="U111" s="44"/>
       <c r="V111" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="W111" s="33" t="s">
+      <c r="W111" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="X111" s="33" t="s">
+      <c r="X111" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Y111" s="33" t="s">
+      <c r="Y111" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Z111" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA111" s="33">
+      <c r="Z111" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA111" s="34">
         <v>1.0</v>
       </c>
-      <c r="AB111" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="AC111" s="33" t="s">
+      <c r="AB111" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AC111" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AD111" s="44"/>
-      <c r="AE111" s="44"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
       <c r="AF111" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG111" s="8">
         <v>2.0</v>
       </c>
-      <c r="AH111" s="35" t="s">
-        <v>101</v>
+      <c r="AH111" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="AI111" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ111" s="3" t="s">
         <v>51</v>
@@ -12044,73 +12042,73 @@
       <c r="AL111" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM111" s="42"/>
-      <c r="AN111" s="42"/>
-      <c r="AO111" s="42"/>
-      <c r="AP111" s="42"/>
+      <c r="AM111" s="43"/>
+      <c r="AN111" s="43"/>
+      <c r="AO111" s="43"/>
+      <c r="AP111" s="43"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="36">
+      <c r="A112" s="37">
         <v>389.0</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" s="36">
+        <v>132</v>
+      </c>
+      <c r="C112" s="37">
         <v>44.5181</v>
       </c>
-      <c r="D112" s="36">
+      <c r="D112" s="37">
         <v>-110.2849</v>
       </c>
-      <c r="E112" s="36">
+      <c r="E112" s="37">
         <v>8.0</v>
       </c>
-      <c r="F112" s="36">
+      <c r="F112" s="37">
         <v>170.0</v>
       </c>
-      <c r="G112" s="36">
+      <c r="G112" s="37">
         <v>-40.8</v>
       </c>
-      <c r="H112" s="36">
+      <c r="H112" s="37">
         <v>659.0</v>
       </c>
-      <c r="I112" s="36">
+      <c r="I112" s="37">
         <v>2.2</v>
       </c>
-      <c r="J112" s="45"/>
-      <c r="K112" s="36">
+      <c r="J112" s="46"/>
+      <c r="K112" s="37">
         <v>67.3</v>
       </c>
-      <c r="L112" s="36">
+      <c r="L112" s="37">
         <v>94.1</v>
       </c>
-      <c r="M112" s="45"/>
-      <c r="N112" s="45"/>
-      <c r="O112" s="45"/>
-      <c r="P112" s="45"/>
-      <c r="Q112" s="45"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
       <c r="R112" s="8">
         <v>45.0</v>
       </c>
-      <c r="S112" s="45"/>
+      <c r="S112" s="46"/>
       <c r="T112" s="8">
         <v>54.0</v>
       </c>
-      <c r="U112" s="45"/>
-      <c r="V112" s="46" t="s">
+      <c r="U112" s="46"/>
+      <c r="V112" s="47" t="s">
         <v>42</v>
       </c>
       <c r="W112" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="X112" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y112" s="36" t="s">
+      <c r="X112" s="37" t="s">
         <v>133</v>
       </c>
+      <c r="Y112" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="Z112" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA112" s="11">
         <v>1.0</v>
@@ -12118,43 +12116,43 @@
       <c r="AB112" s="23">
         <v>0.0</v>
       </c>
-      <c r="AC112" s="45"/>
-      <c r="AD112" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="AE112" s="45"/>
-      <c r="AF112" s="36">
+      <c r="AC112" s="46"/>
+      <c r="AD112" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="AE112" s="46"/>
+      <c r="AF112" s="37">
         <v>9.0</v>
       </c>
-      <c r="AG112" s="36">
+      <c r="AG112" s="37">
         <v>0.0</v>
       </c>
       <c r="AH112" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI112" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI112" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AJ112" s="47" t="s">
+      <c r="AJ112" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AK112" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL112" s="40" t="s">
+      <c r="AK112" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL112" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AM112" s="39"/>
-      <c r="AN112" s="39"/>
-      <c r="AO112" s="39"/>
-      <c r="AP112" s="39"/>
+      <c r="AM112" s="40"/>
+      <c r="AN112" s="40"/>
+      <c r="AO112" s="40"/>
+      <c r="AP112" s="40"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="8">
         <v>390.0</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113" s="8">
         <v>44.5136</v>
@@ -12204,13 +12202,13 @@
         <v>43</v>
       </c>
       <c r="X113" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y113" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z113" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA113" s="11">
         <v>1.0</v>
@@ -12230,7 +12228,7 @@
         <v>0.0</v>
       </c>
       <c r="AH113" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI113" s="3" t="s">
         <v>51</v>
@@ -12239,7 +12237,7 @@
         <v>56</v>
       </c>
       <c r="AK113" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL113" s="15" t="s">
         <v>58</v>
@@ -12251,10 +12249,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C114" s="22">
         <v>44.51585</v>
@@ -12304,13 +12302,13 @@
         <v>43</v>
       </c>
       <c r="X114" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y114" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z114" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA114" s="11">
         <v>1.0</v>
@@ -12324,7 +12322,7 @@
       </c>
       <c r="AE114" s="17"/>
       <c r="AF114" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG114" s="8">
         <v>3.0</v>
@@ -12350,7 +12348,7 @@
         <v>615.0</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C115" s="8">
         <v>44.5093</v>
@@ -12399,16 +12397,16 @@
         <v>42</v>
       </c>
       <c r="W115" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X115" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y115" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z115" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA115" s="11">
         <v>1.0</v>
@@ -12448,7 +12446,7 @@
         <v>395.0</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C116" s="8">
         <v>44.4918</v>
@@ -12498,13 +12496,13 @@
         <v>43</v>
       </c>
       <c r="X116" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y116" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z116" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA116" s="11">
         <v>1.0</v>
@@ -12544,7 +12542,7 @@
         <v>394.0</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C117" s="8">
         <v>44.4952</v>
@@ -12594,13 +12592,13 @@
         <v>43</v>
       </c>
       <c r="X117" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y117" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z117" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA117" s="11">
         <v>1.0</v>
@@ -12640,7 +12638,7 @@
         <v>396.0</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C118" s="8">
         <v>44.4934</v>
@@ -12690,13 +12688,13 @@
         <v>43</v>
       </c>
       <c r="X118" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y118" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z118" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA118" s="11">
         <v>1.0</v>
@@ -12733,10 +12731,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C119" s="8">
         <v>44.4698</v>
@@ -12786,13 +12784,13 @@
         <v>43</v>
       </c>
       <c r="X119" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y119" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z119" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA119" s="11">
         <v>1.0</v>
@@ -12829,10 +12827,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C120" s="8">
         <v>44.4587</v>
@@ -12882,13 +12880,13 @@
         <v>43</v>
       </c>
       <c r="X120" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y120" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z120" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA120" s="11">
         <v>1.0</v>
@@ -12925,10 +12923,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C121" s="8">
         <v>44.4594</v>
@@ -12978,13 +12976,13 @@
         <v>43</v>
       </c>
       <c r="X121" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y121" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z121" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA121" s="11">
         <v>1.0</v>
@@ -13021,10 +13019,10 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C122" s="8">
         <v>44.4586</v>
@@ -13074,13 +13072,13 @@
         <v>43</v>
       </c>
       <c r="X122" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y122" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z122" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA122" s="11">
         <v>1.0</v>
@@ -13120,7 +13118,7 @@
         <v>618.0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C123" s="8">
         <v>44.9456</v>
@@ -13173,10 +13171,10 @@
         <v>44</v>
       </c>
       <c r="Y123" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z123" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA123" s="11">
         <v>1.0</v>
@@ -13196,7 +13194,7 @@
         <v>0.0</v>
       </c>
       <c r="AH123" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI123" s="3" t="s">
         <v>51</v>
@@ -13205,7 +13203,7 @@
         <v>56</v>
       </c>
       <c r="AK123" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL123" s="15" t="s">
         <v>58</v>
@@ -13220,7 +13218,7 @@
         <v>620.0</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C124" s="8">
         <v>44.9456</v>
@@ -13244,8 +13242,8 @@
         <v>8.6</v>
       </c>
       <c r="J124" s="17"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
+      <c r="K124" s="49"/>
+      <c r="L124" s="49"/>
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
       <c r="O124" s="17"/>
@@ -13269,10 +13267,10 @@
         <v>44</v>
       </c>
       <c r="Y124" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z124" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA124" s="11">
         <v>1.0</v>
@@ -13292,7 +13290,7 @@
         <v>0.0</v>
       </c>
       <c r="AH124" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI124" s="3" t="s">
         <v>51</v>
@@ -13300,8 +13298,8 @@
       <c r="AJ124" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AK124" s="49" t="s">
-        <v>151</v>
+      <c r="AK124" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="AL124" s="15" t="s">
         <v>58</v>
@@ -13313,10 +13311,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C125" s="22">
         <v>45.067</v>
@@ -13369,10 +13367,10 @@
         <v>44</v>
       </c>
       <c r="Y125" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z125" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA125" s="11">
         <v>1.0</v>
@@ -13386,7 +13384,7 @@
       </c>
       <c r="AE125" s="17"/>
       <c r="AF125" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG125" s="8">
         <v>3.0</v>
@@ -13412,7 +13410,7 @@
         <v>622.0</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C126" s="8">
         <v>44.945</v>
@@ -13436,8 +13434,8 @@
         <v>10.6</v>
       </c>
       <c r="J126" s="17"/>
-      <c r="K126" s="48"/>
-      <c r="L126" s="48"/>
+      <c r="K126" s="49"/>
+      <c r="L126" s="49"/>
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
       <c r="O126" s="17"/>
@@ -13461,10 +13459,10 @@
         <v>44</v>
       </c>
       <c r="Y126" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z126" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA126" s="11">
         <v>1.0</v>
@@ -13490,8 +13488,8 @@
       <c r="AJ126" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AK126" s="50" t="s">
-        <v>154</v>
+      <c r="AK126" s="51" t="s">
+        <v>155</v>
       </c>
       <c r="AL126" s="15" t="s">
         <v>58</v>
@@ -13506,7 +13504,7 @@
         <v>558.0</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C127" s="8">
         <v>44.421</v>
@@ -13559,10 +13557,10 @@
         <v>44</v>
       </c>
       <c r="Y127" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z127" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA127" s="11">
         <v>1.0</v>
@@ -13602,7 +13600,7 @@
         <v>557.0</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C128" s="8">
         <v>44.4162</v>
@@ -13655,10 +13653,10 @@
         <v>44</v>
       </c>
       <c r="Y128" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z128" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA128" s="11">
         <v>1.0</v>
@@ -13698,7 +13696,7 @@
         <v>448.0</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C129" s="8">
         <v>44.9556</v>
@@ -13754,7 +13752,7 @@
         <v>45</v>
       </c>
       <c r="Z129" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA129" s="11">
         <v>1.0</v>
@@ -13774,7 +13772,7 @@
         <v>0.0</v>
       </c>
       <c r="AH129" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI129" s="3" t="s">
         <v>51</v>
@@ -13783,7 +13781,7 @@
         <v>56</v>
       </c>
       <c r="AK129" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL129" s="15" t="s">
         <v>58</v>
@@ -13798,7 +13796,7 @@
         <v>621.0</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C130" s="8">
         <v>44.9444</v>
@@ -13854,7 +13852,7 @@
         <v>45</v>
       </c>
       <c r="Z130" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA130" s="11">
         <v>1.0</v>
@@ -13874,7 +13872,7 @@
         <v>0.0</v>
       </c>
       <c r="AH130" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI130" s="3" t="s">
         <v>51</v>
@@ -13883,7 +13881,7 @@
         <v>56</v>
       </c>
       <c r="AK130" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL130" s="15" t="s">
         <v>58</v>
@@ -13895,10 +13893,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C131" s="22">
         <v>44.95</v>
@@ -13954,7 +13952,7 @@
         <v>45</v>
       </c>
       <c r="Z131" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA131" s="11">
         <v>1.0</v>
@@ -13968,7 +13966,7 @@
       </c>
       <c r="AE131" s="17"/>
       <c r="AF131" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG131" s="8">
         <v>3.0</v>
@@ -13994,7 +13992,7 @@
         <v>628.0</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C132" s="8">
         <v>44.8767</v>
@@ -14050,7 +14048,7 @@
         <v>45</v>
       </c>
       <c r="Z132" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA132" s="11">
         <v>1.0</v>
@@ -14090,7 +14088,7 @@
         <v>635.0</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C133" s="8">
         <v>44.8767</v>
@@ -14146,7 +14144,7 @@
         <v>45</v>
       </c>
       <c r="Z133" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA133" s="11">
         <v>1.0</v>
@@ -14186,7 +14184,7 @@
         <v>617.0</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C134" s="8">
         <v>44.9538</v>
@@ -14210,8 +14208,8 @@
         <v>4.6</v>
       </c>
       <c r="J134" s="17"/>
-      <c r="K134" s="48"/>
-      <c r="L134" s="48"/>
+      <c r="K134" s="49"/>
+      <c r="L134" s="49"/>
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
       <c r="O134" s="17"/>
@@ -14238,7 +14236,7 @@
         <v>45</v>
       </c>
       <c r="Z134" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA134" s="11">
         <v>1.0</v>
@@ -14258,7 +14256,7 @@
         <v>0.0</v>
       </c>
       <c r="AH134" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI134" s="3" t="s">
         <v>51</v>
@@ -14266,8 +14264,8 @@
       <c r="AJ134" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AK134" s="49" t="s">
-        <v>151</v>
+      <c r="AK134" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="AL134" s="15" t="s">
         <v>58</v>
@@ -14282,7 +14280,7 @@
         <v>624.0</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C135" s="8">
         <v>44.9447</v>
@@ -14338,7 +14336,7 @@
         <v>45</v>
       </c>
       <c r="Z135" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA135" s="11">
         <v>1.0</v>
@@ -14358,7 +14356,7 @@
         <v>0.0</v>
       </c>
       <c r="AH135" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI135" s="3" t="s">
         <v>51</v>
@@ -14367,7 +14365,7 @@
         <v>56</v>
       </c>
       <c r="AK135" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL135" s="15" t="s">
         <v>58</v>
@@ -14382,7 +14380,7 @@
         <v>625.0</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C136" s="8">
         <v>44.945</v>
@@ -14406,10 +14404,10 @@
         <v>2.4</v>
       </c>
       <c r="J136" s="17"/>
-      <c r="K136" s="51">
+      <c r="K136" s="52">
         <v>73.3</v>
       </c>
-      <c r="L136" s="51">
+      <c r="L136" s="52">
         <v>81.2</v>
       </c>
       <c r="M136" s="17"/>
@@ -14438,7 +14436,7 @@
         <v>45</v>
       </c>
       <c r="Z136" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA136" s="11">
         <v>1.0</v>
@@ -14458,7 +14456,7 @@
         <v>0.0</v>
       </c>
       <c r="AH136" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI136" s="3" t="s">
         <v>51</v>
@@ -14466,8 +14464,8 @@
       <c r="AJ136" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AK136" s="49" t="s">
-        <v>161</v>
+      <c r="AK136" s="50" t="s">
+        <v>162</v>
       </c>
       <c r="AL136" s="15" t="s">
         <v>58</v>
@@ -14479,10 +14477,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C137" s="22">
         <v>44.947833333333335</v>
@@ -14506,8 +14504,8 @@
         <v>7.3</v>
       </c>
       <c r="J137" s="17"/>
-      <c r="K137" s="48"/>
-      <c r="L137" s="48"/>
+      <c r="K137" s="49"/>
+      <c r="L137" s="49"/>
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
       <c r="O137" s="17"/>
@@ -14534,7 +14532,7 @@
         <v>45</v>
       </c>
       <c r="Z137" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA137" s="11">
         <v>1.0</v>
@@ -14548,7 +14546,7 @@
       </c>
       <c r="AE137" s="17"/>
       <c r="AF137" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG137" s="8">
         <v>3.0</v>
@@ -14560,8 +14558,8 @@
       <c r="AJ137" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AK137" s="50" t="s">
-        <v>164</v>
+      <c r="AK137" s="51" t="s">
+        <v>165</v>
       </c>
       <c r="AL137" s="15" t="s">
         <v>58</v>
@@ -14576,7 +14574,7 @@
         <v>627.0</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C138" s="8">
         <v>44.9508</v>
@@ -14632,7 +14630,7 @@
         <v>45</v>
       </c>
       <c r="Z138" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA138" s="11">
         <v>1.0</v>
@@ -14672,7 +14670,7 @@
         <v>616.0</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C139" s="8">
         <v>44.9344</v>
@@ -14722,11 +14720,11 @@
         <v>43</v>
       </c>
       <c r="X139" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y139" s="17"/>
       <c r="Z139" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA139" s="11">
         <v>1.0</v>
@@ -14763,10 +14761,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C140" s="8">
         <v>45.4722</v>
@@ -14822,7 +14820,7 @@
         <v>45</v>
       </c>
       <c r="Z140" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA140" s="11">
         <v>1.0</v>
@@ -14842,7 +14840,7 @@
         <v>0.0</v>
       </c>
       <c r="AH140" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AI140" s="3" t="s">
         <v>51</v>
@@ -14851,7 +14849,7 @@
         <v>56</v>
       </c>
       <c r="AK140" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL140" s="15" t="s">
         <v>58</v>
@@ -14866,7 +14864,7 @@
         <v>923.0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C141" s="8">
         <v>44.821</v>
@@ -14919,10 +14917,10 @@
         <v>44</v>
       </c>
       <c r="Y141" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z141" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA141" s="11">
         <v>1.0</v>
@@ -14959,10 +14957,10 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C142" s="8">
         <v>45.2219</v>
@@ -15012,13 +15010,13 @@
         <v>43</v>
       </c>
       <c r="X142" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y142" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z142" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA142" s="11">
         <v>1.0</v>
@@ -15038,7 +15036,7 @@
         <v>0.0</v>
       </c>
       <c r="AH142" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI142" s="3" t="s">
         <v>51</v>
@@ -15047,7 +15045,7 @@
         <v>56</v>
       </c>
       <c r="AK142" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL142" s="15" t="s">
         <v>58</v>
@@ -15059,10 +15057,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="C143" s="8">
         <v>45.2219</v>
@@ -15112,13 +15110,13 @@
         <v>43</v>
       </c>
       <c r="X143" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y143" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z143" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA143" s="11">
         <v>1.0</v>
@@ -15138,7 +15136,7 @@
         <v>0.0</v>
       </c>
       <c r="AH143" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI143" s="3" t="s">
         <v>51</v>
@@ -15147,7 +15145,7 @@
         <v>56</v>
       </c>
       <c r="AK143" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL143" s="15" t="s">
         <v>58</v>
@@ -15159,10 +15157,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C144" s="8">
         <v>45.2217</v>
@@ -15212,13 +15210,13 @@
         <v>43</v>
       </c>
       <c r="X144" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y144" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z144" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA144" s="11">
         <v>1.0</v>
@@ -15238,7 +15236,7 @@
         <v>0.0</v>
       </c>
       <c r="AH144" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI144" s="3" t="s">
         <v>51</v>
@@ -15247,7 +15245,7 @@
         <v>56</v>
       </c>
       <c r="AK144" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL144" s="15" t="s">
         <v>58</v>
@@ -15259,10 +15257,10 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C145" s="8">
         <v>45.2183</v>
@@ -15312,13 +15310,13 @@
         <v>43</v>
       </c>
       <c r="X145" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y145" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z145" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA145" s="11">
         <v>1.0</v>
@@ -15338,7 +15336,7 @@
         <v>0.0</v>
       </c>
       <c r="AH145" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI145" s="3" t="s">
         <v>51</v>
@@ -15347,7 +15345,7 @@
         <v>56</v>
       </c>
       <c r="AK145" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL145" s="15" t="s">
         <v>58</v>
@@ -15359,10 +15357,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C146" s="8">
         <v>45.2169</v>
@@ -15412,13 +15410,13 @@
         <v>43</v>
       </c>
       <c r="X146" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y146" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z146" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA146" s="11">
         <v>1.0</v>
@@ -15438,7 +15436,7 @@
         <v>0.0</v>
       </c>
       <c r="AH146" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI146" s="3" t="s">
         <v>51</v>
@@ -15447,7 +15445,7 @@
         <v>56</v>
       </c>
       <c r="AK146" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL146" s="15" t="s">
         <v>58</v>
@@ -15459,10 +15457,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C147" s="8">
         <v>45.2133</v>
@@ -15512,13 +15510,13 @@
         <v>43</v>
       </c>
       <c r="X147" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y147" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z147" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA147" s="11">
         <v>1.0</v>
@@ -15538,7 +15536,7 @@
         <v>0.0</v>
       </c>
       <c r="AH147" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI147" s="3" t="s">
         <v>51</v>
@@ -15547,7 +15545,7 @@
         <v>56</v>
       </c>
       <c r="AK147" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL147" s="15" t="s">
         <v>58</v>
@@ -15559,10 +15557,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C148" s="8">
         <v>45.2147</v>
@@ -15586,8 +15584,8 @@
         <v>3.6</v>
       </c>
       <c r="J148" s="17"/>
-      <c r="K148" s="48"/>
-      <c r="L148" s="48"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="49"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
       <c r="O148" s="17"/>
@@ -15608,13 +15606,13 @@
         <v>43</v>
       </c>
       <c r="X148" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y148" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z148" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA148" s="11">
         <v>1.0</v>
@@ -15634,7 +15632,7 @@
         <v>0.0</v>
       </c>
       <c r="AH148" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI148" s="3" t="s">
         <v>51</v>
@@ -15642,8 +15640,8 @@
       <c r="AJ148" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AK148" s="49" t="s">
-        <v>151</v>
+      <c r="AK148" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="AL148" s="15" t="s">
         <v>58</v>
@@ -15655,10 +15653,10 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C149" s="22">
         <v>45.218385714285716</v>
@@ -15708,13 +15706,13 @@
         <v>43</v>
       </c>
       <c r="X149" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y149" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z149" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA149" s="11">
         <v>1.0</v>
@@ -15728,7 +15726,7 @@
       </c>
       <c r="AE149" s="17"/>
       <c r="AF149" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG149" s="8">
         <v>3.0</v>
@@ -15751,10 +15749,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C150" s="8">
         <v>45.2178</v>
@@ -15804,13 +15802,13 @@
         <v>43</v>
       </c>
       <c r="X150" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y150" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z150" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA150" s="11">
         <v>1.0</v>
